--- a/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelaov4.xlsx
+++ b/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelaov4.xlsx
@@ -206,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -236,6 +236,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -243,14 +257,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,44 +287,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -311,15 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +317,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -349,8 +348,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,19 +411,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,19 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,73 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +556,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,6 +654,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -681,15 +684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -707,11 +701,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,6 +723,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -745,27 +748,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,134 +771,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,9 +924,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,12 +954,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5598,7 +5583,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10055225" y="177800"/>
+        <a:off x="9998075" y="177800"/>
         <a:ext cx="5934075" cy="4304665"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5633,7 +5618,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10407650" y="215900"/>
+        <a:off x="9921875" y="215900"/>
         <a:ext cx="6209665" cy="4352925"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5668,7 +5653,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10223500" y="158750"/>
+        <a:off x="9737725" y="158750"/>
         <a:ext cx="5553075" cy="4418965"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5703,7 +5688,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10337165" y="215900"/>
+        <a:off x="9851390" y="215900"/>
         <a:ext cx="6363970" cy="4353560"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6086,130 +6071,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AD101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42:B60"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="33.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="10.4285714285714" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.57142857142857" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="5.57142857142857" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.57142857142857" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.57142857142857" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28571428571429" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5714285714286" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="6.57142857142857" customWidth="1"/>
+    <col min="5" max="6" width="5.57142857142857" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" customWidth="1"/>
+    <col min="8" max="8" width="5.57142857142857" customWidth="1"/>
+    <col min="9" max="9" width="9.57142857142857" customWidth="1"/>
+    <col min="10" max="10" width="7.28571428571429" customWidth="1"/>
+    <col min="11" max="11" width="10.5714285714286" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="17" width="12.8571428571429" hidden="1" customWidth="1"/>
+    <col min="13" max="17" width="12.8571428571429" customWidth="1"/>
     <col min="18" max="18" width="3.57142857142857" customWidth="1"/>
-    <col min="19" max="27" width="12.8571428571429" hidden="1" customWidth="1"/>
-    <col min="28" max="30" width="12.8571428571429" customWidth="1"/>
+    <col min="19" max="30" width="12.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:30">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:30">
+      <c r="A2" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6300,8 +6284,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:30">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:30">
+      <c r="A3" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -6392,8 +6376,8 @@
         <v>0.223468517841919</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:30">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:30">
+      <c r="A4" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6484,8 +6468,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:30">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:30">
+      <c r="A5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -6527,7 +6511,7 @@
       <c r="N5" s="6">
         <v>159.2785475</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="26">
         <v>2.77e-5</v>
       </c>
       <c r="P5" s="6">
@@ -6576,8 +6560,8 @@
         <v>0.288888888888888</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:30">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:30">
+      <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6668,8 +6652,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:30">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:30">
+      <c r="A7" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -6760,8 +6744,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:30">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:30">
+      <c r="A8" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6852,8 +6836,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:30">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:30">
+      <c r="A9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -6944,8 +6928,8 @@
         <v>0.21053450620014</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:30">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:30">
+      <c r="A10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7036,8 +7020,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:30">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:30">
+      <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -7128,8 +7112,8 @@
         <v>0.361111111111111</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:30">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:30">
+      <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7220,8 +7204,8 @@
         <v>0.214814814814814</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:30">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:30">
+      <c r="A13" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -7312,8 +7296,8 @@
         <v>0.164851125635439</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:30">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:30">
+      <c r="A14" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -7404,8 +7388,8 @@
         <v>0.407051282051282</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:30">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:30">
+      <c r="A15" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -7447,7 +7431,7 @@
       <c r="N15" s="6">
         <v>127.1382514</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="26">
         <v>0.000107</v>
       </c>
       <c r="P15" s="6">
@@ -7496,8 +7480,8 @@
         <v>0.245527025528341</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:30">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:30">
+      <c r="A16" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -7588,8 +7572,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:30">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:30">
+      <c r="A17" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -7680,8 +7664,8 @@
         <v>0.335883052864184</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:30">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:30">
+      <c r="A18" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -7772,8 +7756,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:30">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:30">
+      <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -7815,7 +7799,7 @@
       <c r="N19" s="6">
         <v>55.39469136</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="26">
         <v>7.52e-9</v>
       </c>
       <c r="P19" s="6">
@@ -7864,8 +7848,8 @@
         <v>0.365102738566737</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:30">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:30">
+      <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -7956,8 +7940,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:30">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:30">
+      <c r="A21" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -8048,8 +8032,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:30">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:30">
+      <c r="A22" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -8140,8 +8124,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:30">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:30">
+      <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -8183,7 +8167,7 @@
       <c r="N23" s="6">
         <v>24.9268384</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="26">
         <v>9.2e-7</v>
       </c>
       <c r="P23" s="6">
@@ -8233,7 +8217,7 @@
       </c>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -8275,7 +8259,7 @@
       <c r="N24" s="2">
         <v>42.9657228</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="27">
         <v>5.57e-11</v>
       </c>
       <c r="P24" s="2">
@@ -8324,8 +8308,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:30">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:30">
+      <c r="A25" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -8416,8 +8400,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:30">
-      <c r="A26" s="25" t="s">
+    <row r="26" spans="1:30">
+      <c r="A26" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -8508,8 +8492,8 @@
         <v>7.58181332945806</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:30">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:30">
+      <c r="A27" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -8600,8 +8584,8 @@
         <v>1.9641456582633</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:30">
-      <c r="A28" s="25" t="s">
+    <row r="28" spans="1:30">
+      <c r="A28" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8643,7 +8627,7 @@
       <c r="N28" s="2">
         <v>13.16014729</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="27">
         <v>0.000615</v>
       </c>
       <c r="P28" s="2">
@@ -8693,7 +8677,7 @@
       </c>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -8784,8 +8768,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:30">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:30">
+      <c r="A30" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -8877,7 +8861,7 @@
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -8968,8 +8952,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:30">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:30">
+      <c r="A32" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -9060,8 +9044,8 @@
         <v>1.21654739746695</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:30">
-      <c r="A33" s="26" t="s">
+    <row r="33" spans="1:30">
+      <c r="A33" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -9153,7 +9137,7 @@
       </c>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -9244,8 +9228,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:30">
-      <c r="A35" s="26" t="s">
+    <row r="35" spans="1:30">
+      <c r="A35" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -9336,8 +9320,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:30">
-      <c r="A36" s="25" t="s">
+    <row r="36" spans="1:30">
+      <c r="A36" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -9428,8 +9412,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:30">
-      <c r="A37" s="26" t="s">
+    <row r="37" spans="1:30">
+      <c r="A37" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -9520,8 +9504,8 @@
         <v>1.81181340971724</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:30">
-      <c r="A38" s="25" t="s">
+    <row r="38" spans="1:30">
+      <c r="A38" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -9563,7 +9547,7 @@
       <c r="N38" s="2">
         <v>171.5156082</v>
       </c>
-      <c r="O38" s="30">
+      <c r="O38" s="27">
         <v>1.58e-9</v>
       </c>
       <c r="P38" s="2">
@@ -9613,7 +9597,7 @@
       </c>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -9704,8 +9688,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:30">
-      <c r="A40" s="25" t="s">
+    <row r="40" spans="1:30">
+      <c r="A40" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -9797,7 +9781,7 @@
       </c>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -9889,7 +9873,7 @@
       </c>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -9980,8 +9964,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:30">
-      <c r="A43" s="26" t="s">
+    <row r="43" spans="1:30">
+      <c r="A43" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -10073,7 +10057,7 @@
       </c>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -10164,8 +10148,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:30">
-      <c r="A45" s="26" t="s">
+    <row r="45" spans="1:30">
+      <c r="A45" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -10257,7 +10241,7 @@
       </c>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -10299,7 +10283,7 @@
       <c r="N46" s="2">
         <v>52.13738772</v>
       </c>
-      <c r="O46" s="30">
+      <c r="O46" s="27">
         <v>5.17e-13</v>
       </c>
       <c r="P46" s="2">
@@ -10349,7 +10333,7 @@
       </c>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -10441,7 +10425,7 @@
       </c>
     </row>
     <row r="48" spans="1:30">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -10532,8 +10516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:30">
-      <c r="A49" s="26" t="s">
+    <row r="49" spans="1:30">
+      <c r="A49" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -10624,8 +10608,8 @@
         <v>0.0833471196406749</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:30">
-      <c r="A50" s="25" t="s">
+    <row r="50" spans="1:30">
+      <c r="A50" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -10717,7 +10701,7 @@
       </c>
     </row>
     <row r="51" spans="1:30">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -10808,8 +10792,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:30">
-      <c r="A52" s="25" t="s">
+    <row r="52" spans="1:30">
+      <c r="A52" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -10901,7 +10885,7 @@
       </c>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -10993,7 +10977,7 @@
       </c>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -11085,7 +11069,7 @@
       </c>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -11177,7 +11161,7 @@
       </c>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -11268,8 +11252,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:30">
-      <c r="A57" s="26" t="s">
+    <row r="57" spans="1:30">
+      <c r="A57" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -11361,7 +11345,7 @@
       </c>
     </row>
     <row r="58" spans="1:30">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -11452,8 +11436,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:30">
-      <c r="A59" s="26" t="s">
+    <row r="59" spans="1:30">
+      <c r="A59" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -11545,7 +11529,7 @@
       </c>
     </row>
     <row r="60" spans="1:30">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -11636,8 +11620,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:30">
-      <c r="A61" s="26" t="s">
+    <row r="61" spans="1:30">
+      <c r="A61" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -11679,7 +11663,7 @@
       <c r="N61" s="6">
         <v>157.4475517</v>
       </c>
-      <c r="O61" s="29">
+      <c r="O61" s="26">
         <v>7.81e-14</v>
       </c>
       <c r="P61" s="6">
@@ -11728,1848 +11712,1848 @@
         <v>0.470631958408564</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:30">
-      <c r="A62" s="27" t="s">
+    <row r="62" spans="1:30">
+      <c r="A62" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="16">
-        <v>1</v>
-      </c>
-      <c r="D62" s="16">
+      <c r="C62" s="15">
+        <v>1</v>
+      </c>
+      <c r="D62" s="15">
         <v>226</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="15">
         <v>57</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="15">
         <v>169</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="15">
         <v>69</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H62" s="15">
         <v>154</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="15">
         <v>0.063</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="15">
         <v>4312</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="15">
         <v>179424673</v>
       </c>
-      <c r="L62" s="16">
+      <c r="L62" s="15">
         <v>0.173110659</v>
       </c>
-      <c r="M62" s="16">
+      <c r="M62" s="15">
         <v>14.11</v>
       </c>
-      <c r="N62" s="16">
+      <c r="N62" s="15">
         <v>189.8948671</v>
       </c>
-      <c r="O62" s="16">
-        <v>0</v>
-      </c>
-      <c r="P62" s="16">
+      <c r="O62" s="15">
+        <v>0</v>
+      </c>
+      <c r="P62" s="15">
         <v>3.70874121</v>
       </c>
-      <c r="Q62" s="16">
+      <c r="Q62" s="15">
         <v>0.91786567</v>
       </c>
-      <c r="R62" s="16">
+      <c r="R62" s="15">
         <v>5</v>
       </c>
-      <c r="S62" s="16">
+      <c r="S62" s="15">
         <v>4.8</v>
       </c>
-      <c r="T62" s="16">
+      <c r="T62" s="15">
         <v>0.253982301</v>
       </c>
-      <c r="U62" s="16">
+      <c r="U62" s="15">
         <v>0.935390482</v>
       </c>
-      <c r="V62" s="16">
+      <c r="V62" s="15">
         <v>0.237168142</v>
       </c>
-      <c r="W62" s="16">
+      <c r="W62" s="15">
         <v>0.940350877</v>
       </c>
-      <c r="X62" s="16">
+      <c r="X62" s="15">
         <v>0.022485207</v>
       </c>
-      <c r="Y62" s="16">
+      <c r="Y62" s="15">
         <v>0.947368421</v>
       </c>
-      <c r="Z62" s="16">
+      <c r="Z62" s="15">
         <v>53.6</v>
       </c>
-      <c r="AA62" s="16">
+      <c r="AA62" s="15">
         <v>3.8</v>
       </c>
-      <c r="AB62" s="16">
+      <c r="AB62" s="15">
         <v>1.46017699115044</v>
       </c>
-      <c r="AC62" s="16">
+      <c r="AC62" s="15">
         <v>0.72635604925022</v>
       </c>
       <c r="AD62" s="5">
         <v>1.85922947260938</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:30">
-      <c r="A63" s="28" t="s">
+    <row r="63" spans="1:30">
+      <c r="A63" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="18">
-        <v>1</v>
-      </c>
-      <c r="D63" s="18">
+      <c r="C63" s="17">
+        <v>1</v>
+      </c>
+      <c r="D63" s="17">
         <v>286</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="17">
         <v>201</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="17">
         <v>85</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="17">
         <v>9</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="17">
         <v>41</v>
       </c>
-      <c r="I63" s="18">
-        <v>0</v>
-      </c>
-      <c r="J63" s="18">
+      <c r="I63" s="17">
+        <v>0</v>
+      </c>
+      <c r="J63" s="17">
         <v>1066</v>
       </c>
-      <c r="K63" s="18">
+      <c r="K63" s="17">
         <v>179424673</v>
       </c>
-      <c r="L63" s="18">
+      <c r="L63" s="17">
         <v>0.062929728</v>
       </c>
-      <c r="M63" s="18">
+      <c r="M63" s="17">
         <v>3.820622503</v>
       </c>
-      <c r="N63" s="18">
+      <c r="N63" s="17">
         <v>25.1259588</v>
       </c>
-      <c r="O63" s="31">
+      <c r="O63" s="28">
         <v>6.89e-7</v>
       </c>
-      <c r="P63" s="18">
+      <c r="P63" s="17">
         <v>1.132993878</v>
       </c>
-      <c r="Q63" s="18">
+      <c r="Q63" s="17">
         <v>0.301281826</v>
       </c>
-      <c r="R63" s="18">
+      <c r="R63" s="17">
         <v>5</v>
       </c>
-      <c r="S63" s="18">
+      <c r="S63" s="17">
         <v>2</v>
       </c>
-      <c r="T63" s="18">
+      <c r="T63" s="17">
         <v>0.677622378</v>
       </c>
-      <c r="U63" s="18">
+      <c r="U63" s="17">
         <v>0.796264928</v>
       </c>
-      <c r="V63" s="18">
+      <c r="V63" s="17">
         <v>0.539160839</v>
       </c>
-      <c r="W63" s="18">
+      <c r="W63" s="17">
         <v>0.767164179</v>
       </c>
-      <c r="X63" s="18">
+      <c r="X63" s="17">
         <v>0.465882353</v>
       </c>
-      <c r="Y63" s="18">
+      <c r="Y63" s="17">
         <v>0.860696517</v>
       </c>
-      <c r="Z63" s="18">
+      <c r="Z63" s="17">
         <v>154.2</v>
       </c>
-      <c r="AA63" s="18">
+      <c r="AA63" s="17">
         <v>39.6</v>
       </c>
-      <c r="AB63" s="18">
+      <c r="AB63" s="17">
         <v>0.595516970129972</v>
       </c>
-      <c r="AC63" s="18">
+      <c r="AC63" s="17">
         <v>1.09352502149318</v>
       </c>
       <c r="AD63" s="8">
         <v>1.7739795866396</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:30">
-      <c r="A64" s="27" t="s">
+    <row r="64" spans="1:30">
+      <c r="A64" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="16">
-        <v>1</v>
-      </c>
-      <c r="D64" s="16">
+      <c r="C64" s="15">
+        <v>1</v>
+      </c>
+      <c r="D64" s="15">
         <v>105</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="15">
         <v>44</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="15">
         <v>61</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="15">
         <v>12</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H64" s="15">
         <v>191</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="15">
         <v>0.016</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J64" s="15">
         <v>5539</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K64" s="15">
         <v>179424673</v>
       </c>
-      <c r="L64" s="16">
+      <c r="L64" s="15">
         <v>0.137687075</v>
       </c>
-      <c r="M64" s="16">
+      <c r="M64" s="15">
         <v>4.674754902</v>
       </c>
-      <c r="N64" s="16">
+      <c r="N64" s="15">
         <v>37.60663096</v>
       </c>
-      <c r="O64" s="32">
+      <c r="O64" s="29">
         <v>4.39e-9</v>
       </c>
-      <c r="P64" s="16">
+      <c r="P64" s="15">
         <v>1.95259512</v>
       </c>
-      <c r="Q64" s="16">
+      <c r="Q64" s="15">
         <v>0.56557377</v>
       </c>
-      <c r="R64" s="16">
+      <c r="R64" s="15">
         <v>5</v>
       </c>
-      <c r="S64" s="16">
+      <c r="S64" s="15">
         <v>2</v>
       </c>
-      <c r="T64" s="16">
+      <c r="T64" s="15">
         <v>0.371428571</v>
       </c>
-      <c r="U64" s="16">
+      <c r="U64" s="15">
         <v>0.818230336</v>
       </c>
-      <c r="V64" s="16">
+      <c r="V64" s="15">
         <v>0.293333333</v>
       </c>
-      <c r="W64" s="16">
+      <c r="W64" s="15">
         <v>0.7</v>
       </c>
-      <c r="X64" s="16">
+      <c r="X64" s="15">
         <v>0.13442623</v>
       </c>
-      <c r="Y64" s="16">
+      <c r="Y64" s="15">
         <v>0.977272727</v>
       </c>
-      <c r="Z64" s="16">
+      <c r="Z64" s="15">
         <v>30.8</v>
       </c>
-      <c r="AA64" s="16">
+      <c r="AA64" s="15">
         <v>8.2</v>
       </c>
-      <c r="AB64" s="16">
+      <c r="AB64" s="15">
         <v>0.845421245421246</v>
       </c>
-      <c r="AC64" s="16">
+      <c r="AC64" s="15">
         <v>1.37088463987025</v>
       </c>
       <c r="AD64" s="5">
         <v>1.20918392326482</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:30">
-      <c r="A65" s="28" t="s">
+    <row r="65" spans="1:30">
+      <c r="A65" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="18">
-        <v>1</v>
-      </c>
-      <c r="D65" s="18">
+      <c r="C65" s="17">
+        <v>1</v>
+      </c>
+      <c r="D65" s="17">
         <v>1728</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="17">
         <v>1210</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="17">
         <v>518</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="17">
         <v>6</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="17">
         <v>21</v>
       </c>
-      <c r="I65" s="18">
-        <v>0</v>
-      </c>
-      <c r="J65" s="18">
+      <c r="I65" s="17">
+        <v>0</v>
+      </c>
+      <c r="J65" s="17">
         <v>378</v>
       </c>
-      <c r="K65" s="18">
+      <c r="K65" s="17">
         <v>179424673</v>
       </c>
-      <c r="L65" s="18">
+      <c r="L65" s="17">
         <v>0.058680556</v>
       </c>
-      <c r="M65" s="18">
+      <c r="M65" s="17">
         <v>233.0812642</v>
       </c>
-      <c r="N65" s="18">
+      <c r="N65" s="17">
         <v>172.8003676</v>
       </c>
-      <c r="O65" s="31">
+      <c r="O65" s="28">
         <v>4.03e-8</v>
       </c>
-      <c r="P65" s="18">
+      <c r="P65" s="17">
         <v>1.270413223</v>
       </c>
-      <c r="Q65" s="18">
+      <c r="Q65" s="17">
         <v>0.279554549</v>
       </c>
-      <c r="R65" s="18">
+      <c r="R65" s="17">
         <v>5</v>
       </c>
-      <c r="S65" s="18">
-        <v>1</v>
-      </c>
-      <c r="T65" s="18">
+      <c r="S65" s="17">
+        <v>1</v>
+      </c>
+      <c r="T65" s="17">
         <v>0.3</v>
       </c>
-      <c r="U65" s="18">
+      <c r="U65" s="17">
         <v>0.889583333</v>
       </c>
-      <c r="V65" s="18">
+      <c r="V65" s="17">
         <v>0.26875</v>
       </c>
-      <c r="W65" s="18">
+      <c r="W65" s="17">
         <v>0.383801653</v>
       </c>
-      <c r="X65" s="18">
+      <c r="X65" s="17">
         <v>0.104247104</v>
       </c>
-      <c r="Y65" s="18">
+      <c r="Y65" s="17">
         <v>0.990082645</v>
       </c>
-      <c r="Z65" s="18">
+      <c r="Z65" s="17">
         <v>464.4</v>
       </c>
-      <c r="AA65" s="18">
+      <c r="AA65" s="17">
         <v>54</v>
       </c>
-      <c r="AB65" s="18">
+      <c r="AB65" s="17">
         <v>0.57407407407408</v>
       </c>
-      <c r="AC65" s="18">
+      <c r="AC65" s="17">
         <v>3.03421279412205</v>
       </c>
       <c r="AD65" s="8">
         <v>0.348571428571428</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:30">
-      <c r="A66" s="27" t="s">
+    <row r="66" spans="1:30">
+      <c r="A66" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="16">
-        <v>1</v>
-      </c>
-      <c r="D66" s="16">
+      <c r="C66" s="15">
+        <v>1</v>
+      </c>
+      <c r="D66" s="15">
         <v>3196</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="15">
         <v>1669</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="15">
         <v>1527</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="15">
         <v>36</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H66" s="15">
         <v>73</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I66" s="15">
         <v>0.281</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J66" s="15">
         <v>3942</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K66" s="15">
         <v>179424673</v>
       </c>
-      <c r="L66" s="16">
+      <c r="L66" s="15">
         <v>0.156364319</v>
       </c>
-      <c r="M66" s="16">
+      <c r="M66" s="15">
         <v>8.726323623</v>
       </c>
-      <c r="N66" s="16">
+      <c r="N66" s="15">
         <v>1288.86388</v>
       </c>
-      <c r="O66" s="16">
-        <v>0</v>
-      </c>
-      <c r="P66" s="16">
+      <c r="O66" s="15">
+        <v>0</v>
+      </c>
+      <c r="P66" s="15">
         <v>1.719208974</v>
       </c>
-      <c r="Q66" s="16">
+      <c r="Q66" s="15">
         <v>0.626694416</v>
       </c>
-      <c r="R66" s="16">
+      <c r="R66" s="15">
         <v>5</v>
       </c>
-      <c r="S66" s="16">
+      <c r="S66" s="15">
         <v>4.2</v>
       </c>
-      <c r="T66" s="16">
+      <c r="T66" s="15">
         <v>0.416332916</v>
       </c>
-      <c r="U66" s="16">
+      <c r="U66" s="15">
         <v>0.897797177</v>
       </c>
-      <c r="V66" s="16">
+      <c r="V66" s="15">
         <v>0.373779725</v>
       </c>
-      <c r="W66" s="16">
+      <c r="W66" s="15">
         <v>0.715757939</v>
       </c>
-      <c r="X66" s="16">
+      <c r="X66" s="15">
         <v>0.089063523</v>
       </c>
-      <c r="Y66" s="16">
+      <c r="Y66" s="15">
         <v>0.715997603</v>
       </c>
-      <c r="Z66" s="16">
+      <c r="Z66" s="15">
         <v>1194.6</v>
       </c>
-      <c r="AA66" s="16">
+      <c r="AA66" s="15">
         <v>136</v>
       </c>
-      <c r="AB66" s="16">
+      <c r="AB66" s="15">
         <v>1.16460527560849</v>
       </c>
-      <c r="AC66" s="16">
+      <c r="AC66" s="15">
         <v>0.704064729935364</v>
       </c>
       <c r="AD66" s="5">
         <v>1.99010898570934</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:30">
-      <c r="A67" s="28" t="s">
+    <row r="67" spans="1:30">
+      <c r="A67" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="18">
-        <v>1</v>
-      </c>
-      <c r="D67" s="18">
+      <c r="C67" s="17">
+        <v>1</v>
+      </c>
+      <c r="D67" s="17">
         <v>32</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="17">
         <v>13</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="17">
         <v>19</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="17">
         <v>56</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="17">
         <v>157</v>
       </c>
-      <c r="I67" s="18">
-        <v>0</v>
-      </c>
-      <c r="J67" s="18">
+      <c r="I67" s="17">
+        <v>0</v>
+      </c>
+      <c r="J67" s="17">
         <v>4239</v>
       </c>
-      <c r="K67" s="18">
+      <c r="K67" s="17">
         <v>179424673</v>
       </c>
-      <c r="L67" s="18">
+      <c r="L67" s="17">
         <v>0.128125</v>
       </c>
-      <c r="M67" s="18">
+      <c r="M67" s="17">
         <v>3.716666667</v>
       </c>
-      <c r="N67" s="18">
+      <c r="N67" s="17">
         <v>10.65834331</v>
       </c>
-      <c r="O67" s="18">
+      <c r="O67" s="17">
         <v>0.001485455</v>
       </c>
-      <c r="P67" s="18">
+      <c r="P67" s="17">
         <v>2.086837607</v>
       </c>
-      <c r="Q67" s="18">
+      <c r="Q67" s="17">
         <v>0.531174089</v>
       </c>
-      <c r="R67" s="18">
+      <c r="R67" s="17">
         <v>5</v>
       </c>
-      <c r="S67" s="18">
+      <c r="S67" s="17">
         <v>3.8</v>
       </c>
-      <c r="T67" s="18">
+      <c r="T67" s="17">
         <v>0.3</v>
       </c>
-      <c r="U67" s="18">
+      <c r="U67" s="17">
         <v>0.847777778</v>
       </c>
-      <c r="V67" s="18">
+      <c r="V67" s="17">
         <v>0.25</v>
       </c>
-      <c r="W67" s="18">
+      <c r="W67" s="17">
         <v>0.615384615</v>
       </c>
-      <c r="X67" s="18">
+      <c r="X67" s="17">
         <v>0.084210526</v>
       </c>
-      <c r="Y67" s="18">
+      <c r="Y67" s="17">
         <v>0.846153846</v>
       </c>
-      <c r="Z67" s="18">
+      <c r="Z67" s="17">
         <v>8</v>
       </c>
-      <c r="AA67" s="18">
+      <c r="AA67" s="17">
         <v>1.6</v>
       </c>
-      <c r="AB67" s="18">
+      <c r="AB67" s="17">
         <v>1.14583333333333</v>
       </c>
-      <c r="AC67" s="18">
+      <c r="AC67" s="17">
         <v>1.49201196738174</v>
       </c>
       <c r="AD67" s="8">
         <v>1.33816627816627</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:30">
-      <c r="A68" s="27" t="s">
+    <row r="68" spans="1:30">
+      <c r="A68" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="16">
-        <v>1</v>
-      </c>
-      <c r="D68" s="16">
+      <c r="C68" s="15">
+        <v>1</v>
+      </c>
+      <c r="D68" s="15">
         <v>106</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="15">
         <v>53</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="15">
         <v>53</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G68" s="15">
         <v>58</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H68" s="15">
         <v>334</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I68" s="15">
         <v>0.015</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J68" s="15">
         <v>6012</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="15">
         <v>179424673</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L68" s="15">
         <v>0.077358491</v>
       </c>
-      <c r="M68" s="16">
+      <c r="M68" s="15">
         <v>9.233333333</v>
       </c>
-      <c r="N68" s="16">
+      <c r="N68" s="15">
         <v>17.3624707</v>
       </c>
-      <c r="O68" s="32">
+      <c r="O68" s="29">
         <v>0.000255</v>
       </c>
-      <c r="P68" s="16">
+      <c r="P68" s="15">
         <v>1.854693319</v>
       </c>
-      <c r="Q68" s="16">
+      <c r="Q68" s="15">
         <v>0.309433962</v>
       </c>
-      <c r="R68" s="16">
+      <c r="R68" s="15">
         <v>5</v>
       </c>
-      <c r="S68" s="16">
-        <v>1</v>
-      </c>
-      <c r="T68" s="16">
+      <c r="S68" s="15">
+        <v>1</v>
+      </c>
+      <c r="T68" s="15">
         <v>0.18490566</v>
       </c>
-      <c r="U68" s="16">
+      <c r="U68" s="15">
         <v>0.927346659</v>
       </c>
-      <c r="V68" s="16">
+      <c r="V68" s="15">
         <v>0.169811321</v>
       </c>
-      <c r="W68" s="16">
+      <c r="W68" s="15">
         <v>0.339622642</v>
       </c>
-      <c r="X68" s="16">
+      <c r="X68" s="15">
         <v>0.030188679</v>
       </c>
-      <c r="Y68" s="16">
+      <c r="Y68" s="15">
         <v>0.924528302</v>
       </c>
-      <c r="Z68" s="16">
+      <c r="Z68" s="15">
         <v>18</v>
       </c>
-      <c r="AA68" s="16">
+      <c r="AA68" s="15">
         <v>1.6</v>
       </c>
-      <c r="AB68" s="16">
+      <c r="AB68" s="15">
         <v>0.924528301886792</v>
       </c>
-      <c r="AC68" s="16">
+      <c r="AC68" s="15">
         <v>2.21680217413416</v>
       </c>
       <c r="AD68" s="5">
         <v>0.310032702222441</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:30">
-      <c r="A69" s="28" t="s">
+    <row r="69" spans="1:30">
+      <c r="A69" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="18">
-        <v>1</v>
-      </c>
-      <c r="D69" s="18">
+      <c r="C69" s="17">
+        <v>1</v>
+      </c>
+      <c r="D69" s="17">
         <v>124</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="17">
         <v>62</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="17">
         <v>62</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="17">
         <v>6</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="17">
         <v>17</v>
       </c>
-      <c r="I69" s="18">
-        <v>0</v>
-      </c>
-      <c r="J69" s="18">
+      <c r="I69" s="17">
+        <v>0</v>
+      </c>
+      <c r="J69" s="17">
         <v>374</v>
       </c>
-      <c r="K69" s="18">
+      <c r="K69" s="17">
         <v>179424673</v>
       </c>
-      <c r="L69" s="18">
+      <c r="L69" s="17">
         <v>0.054032258</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M69" s="17">
         <v>3.896666667</v>
       </c>
-      <c r="N69" s="18">
+      <c r="N69" s="17">
         <v>9.907085151</v>
       </c>
-      <c r="O69" s="18">
+      <c r="O69" s="17">
         <v>0.003949387</v>
       </c>
-      <c r="P69" s="18">
+      <c r="P69" s="17">
         <v>1.607355644</v>
       </c>
-      <c r="Q69" s="18">
+      <c r="Q69" s="17">
         <v>0.216129032</v>
       </c>
-      <c r="R69" s="18">
+      <c r="R69" s="17">
         <v>5</v>
       </c>
-      <c r="S69" s="18">
+      <c r="S69" s="17">
         <v>1.6</v>
       </c>
-      <c r="T69" s="18">
+      <c r="T69" s="17">
         <v>0.208064516</v>
       </c>
-      <c r="U69" s="18">
+      <c r="U69" s="17">
         <v>0.803677822</v>
       </c>
-      <c r="V69" s="18">
+      <c r="V69" s="17">
         <v>0.158064516</v>
       </c>
-      <c r="W69" s="18">
+      <c r="W69" s="17">
         <v>0.316129032</v>
       </c>
-      <c r="X69" s="18">
+      <c r="X69" s="17">
         <v>0.1</v>
       </c>
-      <c r="Y69" s="18">
+      <c r="Y69" s="17">
         <v>0.661290323</v>
       </c>
-      <c r="Z69" s="18">
+      <c r="Z69" s="17">
         <v>19.6</v>
       </c>
-      <c r="AA69" s="18">
+      <c r="AA69" s="17">
         <v>6.2</v>
       </c>
-      <c r="AB69" s="18">
+      <c r="AB69" s="17">
         <v>0.96911727931983</v>
       </c>
-      <c r="AC69" s="18">
+      <c r="AC69" s="17">
         <v>1.61057723746952</v>
       </c>
       <c r="AD69" s="8">
         <v>0.507408310927492</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:30">
-      <c r="A70" s="27" t="s">
+    <row r="70" spans="1:30">
+      <c r="A70" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="16">
-        <v>1</v>
-      </c>
-      <c r="D70" s="16">
+      <c r="C70" s="15">
+        <v>1</v>
+      </c>
+      <c r="D70" s="15">
         <v>8124</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="15">
         <v>4208</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="15">
         <v>3916</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="15">
         <v>22</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70" s="15">
         <v>116</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="15">
         <v>0.421</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="15">
         <v>3248</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="15">
         <v>179424673</v>
       </c>
-      <c r="L70" s="16">
+      <c r="L70" s="15">
         <v>0.185229969</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M70" s="15">
         <v>26.1821351</v>
       </c>
-      <c r="N70" s="16">
+      <c r="N70" s="15">
         <v>4585.645603</v>
       </c>
-      <c r="O70" s="16">
-        <v>0</v>
-      </c>
-      <c r="P70" s="16">
+      <c r="O70" s="15">
+        <v>0</v>
+      </c>
+      <c r="P70" s="15">
         <v>1.848276296</v>
       </c>
-      <c r="Q70" s="16">
+      <c r="Q70" s="15">
         <v>0.741878304</v>
       </c>
-      <c r="R70" s="16">
+      <c r="R70" s="15">
         <v>5</v>
       </c>
-      <c r="S70" s="16">
+      <c r="S70" s="15">
         <v>2.2</v>
       </c>
-      <c r="T70" s="16">
+      <c r="T70" s="15">
         <v>0.421861152</v>
       </c>
-      <c r="U70" s="16">
+      <c r="U70" s="15">
         <v>0.957354339</v>
       </c>
-      <c r="V70" s="16">
+      <c r="V70" s="15">
         <v>0.403741999</v>
       </c>
-      <c r="W70" s="16">
+      <c r="W70" s="15">
         <v>0.779467681</v>
       </c>
-      <c r="X70" s="16">
+      <c r="X70" s="15">
         <v>0.037589377</v>
       </c>
-      <c r="Y70" s="16">
+      <c r="Y70" s="15">
         <v>0.977186312</v>
       </c>
-      <c r="Z70" s="16">
+      <c r="Z70" s="15">
         <v>3280</v>
       </c>
-      <c r="AA70" s="16">
+      <c r="AA70" s="15">
         <v>147.2</v>
       </c>
-      <c r="AB70" s="16">
+      <c r="AB70" s="15">
         <v>0.959920945236775</v>
       </c>
-      <c r="AC70" s="16">
+      <c r="AC70" s="15">
         <v>1.59383321628902</v>
       </c>
       <c r="AD70" s="5">
         <v>1.47446030953754</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:30">
-      <c r="A71" s="28" t="s">
+    <row r="71" spans="1:30">
+      <c r="A71" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C71" s="18">
-        <v>1</v>
-      </c>
-      <c r="D71" s="18">
+      <c r="C71" s="17">
+        <v>1</v>
+      </c>
+      <c r="D71" s="17">
         <v>12960</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="17">
         <v>4320</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="17">
         <v>8640</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="17">
         <v>8</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="17">
         <v>27</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I71" s="17">
         <v>0.078</v>
       </c>
-      <c r="J71" s="18">
+      <c r="J71" s="17">
         <v>486</v>
       </c>
-      <c r="K71" s="18">
+      <c r="K71" s="17">
         <v>179424673</v>
       </c>
-      <c r="L71" s="18">
+      <c r="L71" s="17">
         <v>0.044444444</v>
       </c>
-      <c r="M71" s="18">
+      <c r="M71" s="17">
         <v>864.399838</v>
       </c>
-      <c r="N71" s="18">
+      <c r="N71" s="17">
         <v>2592</v>
       </c>
-      <c r="O71" s="18">
+      <c r="O71" s="17">
         <v>0.8</v>
       </c>
-      <c r="P71" s="18">
+      <c r="P71" s="17">
         <v>1.4</v>
       </c>
-      <c r="Q71" s="18">
+      <c r="Q71" s="17">
         <v>0.2</v>
       </c>
-      <c r="R71" s="18">
+      <c r="R71" s="17">
         <v>5</v>
       </c>
-      <c r="S71" s="18">
-        <v>1</v>
-      </c>
-      <c r="T71" s="18">
+      <c r="S71" s="17">
+        <v>1</v>
+      </c>
+      <c r="T71" s="17">
         <v>0.306666667</v>
       </c>
-      <c r="U71" s="18">
+      <c r="U71" s="17">
         <v>0.466666667</v>
       </c>
-      <c r="V71" s="18">
+      <c r="V71" s="17">
         <v>0.146666667</v>
       </c>
-      <c r="W71" s="18">
+      <c r="W71" s="17">
         <v>0.44</v>
       </c>
-      <c r="X71" s="18">
+      <c r="X71" s="17">
         <v>0.24</v>
       </c>
-      <c r="Y71" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z71" s="18">
+      <c r="Y71" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="17">
         <v>1900.8</v>
       </c>
-      <c r="AA71" s="18">
+      <c r="AA71" s="17">
         <v>2073.6</v>
       </c>
-      <c r="AB71" s="18">
+      <c r="AB71" s="17">
         <v>0.371014492753681</v>
       </c>
-      <c r="AC71" s="18">
+      <c r="AC71" s="17">
         <v>2.23552888050111</v>
       </c>
       <c r="AD71" s="8">
         <v>0.234285714285714</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:30">
-      <c r="A72" s="27" t="s">
+    <row r="72" spans="1:30">
+      <c r="A72" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="16">
-        <v>1</v>
-      </c>
-      <c r="D72" s="16">
+      <c r="C72" s="15">
+        <v>1</v>
+      </c>
+      <c r="D72" s="15">
         <v>90</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="15">
         <v>64</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="15">
         <v>26</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="15">
         <v>8</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H72" s="15">
         <v>23</v>
       </c>
-      <c r="I72" s="16">
-        <v>0</v>
-      </c>
-      <c r="J72" s="16">
+      <c r="I72" s="15">
+        <v>0</v>
+      </c>
+      <c r="J72" s="15">
         <v>644</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="15">
         <v>179424673</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L72" s="15">
         <v>0.02617284</v>
       </c>
-      <c r="M72" s="16">
+      <c r="M72" s="15">
         <v>5.185</v>
       </c>
-      <c r="N72" s="16">
+      <c r="N72" s="15">
         <v>2.288600255</v>
       </c>
-      <c r="O72" s="16">
+      <c r="O72" s="15">
         <v>0.16786933</v>
       </c>
-      <c r="P72" s="16">
+      <c r="P72" s="15">
         <v>1.230909673</v>
       </c>
-      <c r="Q72" s="16">
+      <c r="Q72" s="15">
         <v>0.127403846</v>
       </c>
-      <c r="R72" s="16">
+      <c r="R72" s="15">
         <v>5</v>
       </c>
-      <c r="S72" s="16">
+      <c r="S72" s="15">
         <v>2.6</v>
       </c>
-      <c r="T72" s="16">
+      <c r="T72" s="15">
         <v>0.244444444</v>
       </c>
-      <c r="U72" s="16">
+      <c r="U72" s="15">
         <v>0.875313545</v>
       </c>
-      <c r="V72" s="16">
+      <c r="V72" s="15">
         <v>0.2</v>
       </c>
-      <c r="W72" s="16">
+      <c r="W72" s="15">
         <v>0.28125</v>
       </c>
-      <c r="X72" s="16">
+      <c r="X72" s="15">
         <v>0.153846154</v>
       </c>
-      <c r="Y72" s="16">
+      <c r="Y72" s="15">
         <v>0.609375</v>
       </c>
-      <c r="Z72" s="16">
+      <c r="Z72" s="15">
         <v>18</v>
       </c>
-      <c r="AA72" s="16">
+      <c r="AA72" s="15">
         <v>4</v>
       </c>
-      <c r="AB72" s="16">
+      <c r="AB72" s="15">
         <v>0.941414141414141</v>
       </c>
-      <c r="AC72" s="16">
+      <c r="AC72" s="15">
         <v>1.81770451456565</v>
       </c>
       <c r="AD72" s="5">
         <v>0.474930194948567</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:30">
-      <c r="A73" s="28" t="s">
+    <row r="73" spans="1:30">
+      <c r="A73" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="18">
-        <v>1</v>
-      </c>
-      <c r="D73" s="18">
+      <c r="C73" s="17">
+        <v>1</v>
+      </c>
+      <c r="D73" s="17">
         <v>339</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="17">
         <v>84</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="17">
         <v>255</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="17">
         <v>17</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="17">
         <v>37</v>
       </c>
-      <c r="I73" s="18">
-        <v>0</v>
-      </c>
-      <c r="J73" s="18">
+      <c r="I73" s="17">
+        <v>0</v>
+      </c>
+      <c r="J73" s="17">
         <v>1184</v>
       </c>
-      <c r="K73" s="18">
+      <c r="K73" s="17">
         <v>179424673</v>
       </c>
-      <c r="L73" s="18">
+      <c r="L73" s="17">
         <v>0.083305923</v>
       </c>
-      <c r="M73" s="18">
+      <c r="M73" s="17">
         <v>1.328863528</v>
       </c>
-      <c r="N73" s="18">
+      <c r="N73" s="17">
         <v>66.77699521</v>
       </c>
-      <c r="O73" s="31">
+      <c r="O73" s="28">
         <v>2.42e-15</v>
       </c>
-      <c r="P73" s="18">
+      <c r="P73" s="17">
         <v>2.325663495</v>
       </c>
-      <c r="Q73" s="18">
+      <c r="Q73" s="17">
         <v>0.446946779</v>
       </c>
-      <c r="R73" s="18">
+      <c r="R73" s="17">
         <v>5</v>
       </c>
-      <c r="S73" s="18">
+      <c r="S73" s="17">
         <v>1.8</v>
       </c>
-      <c r="T73" s="18">
+      <c r="T73" s="17">
         <v>0.254277286</v>
       </c>
-      <c r="U73" s="18">
+      <c r="U73" s="17">
         <v>0.5762706</v>
       </c>
-      <c r="V73" s="18">
+      <c r="V73" s="17">
         <v>0.146312684</v>
       </c>
-      <c r="W73" s="18">
+      <c r="W73" s="17">
         <v>0.59047619</v>
       </c>
-      <c r="X73" s="18">
+      <c r="X73" s="17">
         <v>0.143529412</v>
       </c>
-      <c r="Y73" s="18">
+      <c r="Y73" s="17">
         <v>0.619047619</v>
       </c>
-      <c r="Z73" s="18">
+      <c r="Z73" s="17">
         <v>49.6</v>
       </c>
-      <c r="AA73" s="18">
+      <c r="AA73" s="17">
         <v>36.6</v>
       </c>
-      <c r="AB73" s="18">
+      <c r="AB73" s="17">
         <v>1.45722713864306</v>
       </c>
-      <c r="AC73" s="18">
+      <c r="AC73" s="17">
         <v>0.864182216608768</v>
       </c>
       <c r="AD73" s="8">
         <v>1.76383155193609</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:30">
-      <c r="A74" s="27" t="s">
+    <row r="74" spans="1:30">
+      <c r="A74" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="16">
-        <v>1</v>
-      </c>
-      <c r="D74" s="16">
+      <c r="C74" s="15">
+        <v>1</v>
+      </c>
+      <c r="D74" s="15">
         <v>15</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="15">
         <v>9</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="15">
         <v>6</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="15">
         <v>6</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H74" s="15">
         <v>16</v>
       </c>
-      <c r="I74" s="16">
-        <v>0</v>
-      </c>
-      <c r="J74" s="16">
+      <c r="I74" s="15">
+        <v>0</v>
+      </c>
+      <c r="J74" s="15">
         <v>352</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="15">
         <v>179424673</v>
       </c>
-      <c r="L74" s="16">
+      <c r="L74" s="15">
         <v>0.072</v>
       </c>
-      <c r="M74" s="16">
+      <c r="M74" s="15">
         <v>2.26</v>
       </c>
-      <c r="N74" s="16">
+      <c r="N74" s="15">
         <v>2.335164835</v>
       </c>
-      <c r="O74" s="16">
+      <c r="O74" s="15">
         <v>0.140058446</v>
       </c>
-      <c r="P74" s="16">
+      <c r="P74" s="15">
         <v>1.361721612</v>
       </c>
-      <c r="Q74" s="16">
+      <c r="Q74" s="15">
         <v>0.3</v>
       </c>
-      <c r="R74" s="16">
+      <c r="R74" s="15">
         <v>5</v>
       </c>
-      <c r="S74" s="16">
+      <c r="S74" s="15">
         <v>1.6</v>
       </c>
-      <c r="T74" s="16">
+      <c r="T74" s="15">
         <v>0.546666667</v>
       </c>
-      <c r="U74" s="16">
+      <c r="U74" s="15">
         <v>0.817032967</v>
       </c>
-      <c r="V74" s="16">
+      <c r="V74" s="15">
         <v>0.4</v>
       </c>
-      <c r="W74" s="16">
+      <c r="W74" s="15">
         <v>0.666666667</v>
       </c>
-      <c r="X74" s="16">
+      <c r="X74" s="15">
         <v>0.366666667</v>
       </c>
-      <c r="Y74" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z74" s="16">
+      <c r="Y74" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="15">
         <v>6</v>
       </c>
-      <c r="AA74" s="16">
+      <c r="AA74" s="15">
         <v>2.2</v>
       </c>
-      <c r="AB74" s="16">
+      <c r="AB74" s="15">
         <v>0.289430894308943</v>
       </c>
-      <c r="AC74" s="16">
+      <c r="AC74" s="15">
         <v>1.71408754118701</v>
       </c>
       <c r="AD74" s="5">
         <v>0.685543345543345</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:30">
-      <c r="A75" s="28" t="s">
+    <row r="75" spans="1:30">
+      <c r="A75" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="18">
-        <v>1</v>
-      </c>
-      <c r="D75" s="18">
+      <c r="C75" s="17">
+        <v>1</v>
+      </c>
+      <c r="D75" s="17">
         <v>1066</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="17">
         <v>331</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="17">
         <v>735</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="17">
         <v>12</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H75" s="17">
         <v>42</v>
       </c>
-      <c r="I75" s="18">
+      <c r="I75" s="17">
         <v>0.016</v>
       </c>
-      <c r="J75" s="18">
+      <c r="J75" s="17">
         <v>756</v>
       </c>
-      <c r="K75" s="18">
+      <c r="K75" s="17">
         <v>179424673</v>
       </c>
-      <c r="L75" s="18">
+      <c r="L75" s="17">
         <v>0.093171154</v>
       </c>
-      <c r="M75" s="18">
+      <c r="M75" s="17">
         <v>93.28099353</v>
       </c>
-      <c r="N75" s="18">
+      <c r="N75" s="17">
         <v>331.6535568</v>
       </c>
-      <c r="O75" s="31">
+      <c r="O75" s="28">
         <v>5.29e-8</v>
       </c>
-      <c r="P75" s="18">
+      <c r="P75" s="17">
         <v>2.12252703</v>
       </c>
-      <c r="Q75" s="18">
+      <c r="Q75" s="17">
         <v>0.435191648</v>
       </c>
-      <c r="R75" s="18">
+      <c r="R75" s="17">
         <v>5</v>
       </c>
-      <c r="S75" s="18">
-        <v>1</v>
-      </c>
-      <c r="T75" s="18">
+      <c r="S75" s="17">
+        <v>1</v>
+      </c>
+      <c r="T75" s="17">
         <v>0.421388368</v>
       </c>
-      <c r="U75" s="18">
+      <c r="U75" s="17">
         <v>0.659058581</v>
       </c>
-      <c r="V75" s="18">
+      <c r="V75" s="17">
         <v>0.224015009</v>
       </c>
-      <c r="W75" s="18">
+      <c r="W75" s="17">
         <v>0.721450151</v>
       </c>
-      <c r="X75" s="18">
+      <c r="X75" s="17">
         <v>0.286258503</v>
       </c>
-      <c r="Y75" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z75" s="18">
+      <c r="Y75" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="17">
         <v>238.8</v>
       </c>
-      <c r="AA75" s="18">
+      <c r="AA75" s="17">
         <v>210.4</v>
       </c>
-      <c r="AB75" s="18">
+      <c r="AB75" s="17">
         <v>0.499491278219855</v>
       </c>
-      <c r="AC75" s="18">
+      <c r="AC75" s="17">
         <v>2.51085865512316</v>
       </c>
       <c r="AD75" s="8">
         <v>0.626575396787005</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:30">
-      <c r="A76" s="27" t="s">
+    <row r="76" spans="1:30">
+      <c r="A76" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="16">
-        <v>1</v>
-      </c>
-      <c r="D76" s="16">
+      <c r="C76" s="15">
+        <v>1</v>
+      </c>
+      <c r="D76" s="15">
         <v>683</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="15">
         <v>92</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="15">
         <v>591</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G76" s="15">
         <v>35</v>
       </c>
-      <c r="H76" s="16">
+      <c r="H76" s="15">
         <v>99</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I76" s="15">
         <v>0.093</v>
       </c>
-      <c r="J76" s="16">
+      <c r="J76" s="15">
         <v>5049</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K76" s="15">
         <v>179424673</v>
       </c>
-      <c r="L76" s="16">
+      <c r="L76" s="15">
         <v>0.090962059</v>
       </c>
-      <c r="M76" s="16">
+      <c r="M76" s="15">
         <v>0.994549061</v>
       </c>
-      <c r="N76" s="16">
+      <c r="N76" s="15">
         <v>256.513151</v>
       </c>
-      <c r="O76" s="16">
-        <v>0</v>
-      </c>
-      <c r="P76" s="16">
+      <c r="O76" s="15">
+        <v>0</v>
+      </c>
+      <c r="P76" s="15">
         <v>3.651880466</v>
       </c>
-      <c r="Q76" s="16">
+      <c r="Q76" s="15">
         <v>0.780416391</v>
       </c>
-      <c r="R76" s="16">
+      <c r="R76" s="15">
         <v>5</v>
       </c>
-      <c r="S76" s="16">
+      <c r="S76" s="15">
         <v>7.4</v>
       </c>
-      <c r="T76" s="16">
+      <c r="T76" s="15">
         <v>0.263836018</v>
       </c>
-      <c r="U76" s="16">
+      <c r="U76" s="15">
         <v>0.491907764</v>
       </c>
-      <c r="V76" s="16">
+      <c r="V76" s="15">
         <v>0.126500732</v>
       </c>
-      <c r="W76" s="16">
+      <c r="W76" s="15">
         <v>0.939130435</v>
       </c>
-      <c r="X76" s="16">
+      <c r="X76" s="15">
         <v>0.158714044</v>
       </c>
-      <c r="Y76" s="16">
+      <c r="Y76" s="15">
         <v>0.97826087</v>
       </c>
-      <c r="Z76" s="16">
+      <c r="Z76" s="15">
         <v>86.4</v>
       </c>
-      <c r="AA76" s="16">
+      <c r="AA76" s="15">
         <v>93.8</v>
       </c>
-      <c r="AB76" s="16">
+      <c r="AB76" s="15">
         <v>1.38941114720426</v>
       </c>
-      <c r="AC76" s="16">
+      <c r="AC76" s="15">
         <v>0.838407485408117</v>
       </c>
       <c r="AD76" s="5">
         <v>1.60377849681841</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:30">
-      <c r="A77" s="28" t="s">
+    <row r="77" spans="1:30">
+      <c r="A77" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C77" s="18">
-        <v>1</v>
-      </c>
-      <c r="D77" s="18">
+      <c r="C77" s="17">
+        <v>1</v>
+      </c>
+      <c r="D77" s="17">
         <v>187</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="17">
         <v>172</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="17">
         <v>15</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="17">
         <v>22</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H77" s="17">
         <v>44</v>
       </c>
-      <c r="I77" s="18">
-        <v>0</v>
-      </c>
-      <c r="J77" s="18">
+      <c r="I77" s="17">
+        <v>0</v>
+      </c>
+      <c r="J77" s="17">
         <v>1012</v>
       </c>
-      <c r="K77" s="18">
+      <c r="K77" s="17">
         <v>179424673</v>
       </c>
-      <c r="L77" s="18">
+      <c r="L77" s="17">
         <v>0.029609082</v>
       </c>
-      <c r="M77" s="18">
+      <c r="M77" s="17">
         <v>48.6</v>
       </c>
-      <c r="N77" s="18">
+      <c r="N77" s="17">
         <v>9.37490869</v>
       </c>
-      <c r="O77" s="18">
+      <c r="O77" s="17">
         <v>0.00268908</v>
       </c>
-      <c r="P77" s="18">
+      <c r="P77" s="17">
         <v>1.077651418</v>
       </c>
-      <c r="Q77" s="18">
+      <c r="Q77" s="17">
         <v>0.401317829</v>
       </c>
-      <c r="R77" s="18">
+      <c r="R77" s="17">
         <v>5</v>
       </c>
-      <c r="S77" s="18">
+      <c r="S77" s="17">
         <v>1.4</v>
       </c>
-      <c r="T77" s="18">
+      <c r="T77" s="17">
         <v>0.422459893</v>
       </c>
-      <c r="U77" s="18">
+      <c r="U77" s="17">
         <v>0.991208791</v>
       </c>
-      <c r="V77" s="18">
+      <c r="V77" s="17">
         <v>0.418181818</v>
       </c>
-      <c r="W77" s="18">
+      <c r="W77" s="17">
         <v>0.454651163</v>
       </c>
-      <c r="X77" s="18">
+      <c r="X77" s="17">
         <v>0.053333333</v>
       </c>
-      <c r="Y77" s="18">
+      <c r="Y77" s="17">
         <v>0.738372093</v>
       </c>
-      <c r="Z77" s="18">
+      <c r="Z77" s="17">
         <v>78.2</v>
       </c>
-      <c r="AA77" s="18">
+      <c r="AA77" s="17">
         <v>0.8</v>
       </c>
-      <c r="AB77" s="18">
+      <c r="AB77" s="17">
         <v>0.821525756447574</v>
       </c>
-      <c r="AC77" s="18">
+      <c r="AC77" s="17">
         <v>2.02312894602474</v>
       </c>
       <c r="AD77" s="8">
         <v>1.16218245854409</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:30">
-      <c r="A78" s="27" t="s">
+    <row r="78" spans="1:30">
+      <c r="A78" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="16">
-        <v>1</v>
-      </c>
-      <c r="D78" s="16">
+      <c r="C78" s="15">
+        <v>1</v>
+      </c>
+      <c r="D78" s="15">
         <v>3190</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="15">
         <v>1655</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="15">
         <v>1535</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="15">
         <v>61</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H78" s="15">
         <v>3465</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I78" s="15">
         <v>2.543</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J78" s="15">
         <v>62370</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K78" s="15">
         <v>179424673</v>
       </c>
-      <c r="L78" s="16">
+      <c r="L78" s="15">
         <v>0.051757255</v>
       </c>
-      <c r="M78" s="16">
+      <c r="M78" s="15">
         <v>7.891843747</v>
       </c>
-      <c r="N78" s="16">
+      <c r="N78" s="15">
         <v>273.0656506</v>
       </c>
-      <c r="O78" s="16">
-        <v>0</v>
-      </c>
-      <c r="P78" s="16">
+      <c r="O78" s="15">
+        <v>0</v>
+      </c>
+      <c r="P78" s="15">
         <v>1.671212462</v>
       </c>
-      <c r="Q78" s="16">
+      <c r="Q78" s="15">
         <v>0.207322397</v>
       </c>
-      <c r="R78" s="16">
+      <c r="R78" s="15">
         <v>5</v>
       </c>
-      <c r="S78" s="16">
-        <v>1</v>
-      </c>
-      <c r="T78" s="16">
+      <c r="S78" s="15">
+        <v>1</v>
+      </c>
+      <c r="T78" s="15">
         <v>0.149905956</v>
       </c>
-      <c r="U78" s="16">
+      <c r="U78" s="15">
         <v>0.867039694</v>
       </c>
-      <c r="V78" s="16">
+      <c r="V78" s="15">
         <v>0.129529781</v>
       </c>
-      <c r="W78" s="16">
+      <c r="W78" s="15">
         <v>0.249667674</v>
       </c>
-      <c r="X78" s="16">
+      <c r="X78" s="15">
         <v>0.042345277</v>
       </c>
-      <c r="Y78" s="16">
+      <c r="Y78" s="15">
         <v>0.807854985</v>
       </c>
-      <c r="Z78" s="16">
+      <c r="Z78" s="15">
         <v>413.2</v>
       </c>
-      <c r="AA78" s="16">
+      <c r="AA78" s="15">
         <v>65</v>
       </c>
-      <c r="AB78" s="16">
+      <c r="AB78" s="15">
         <v>0.988087774294687</v>
       </c>
-      <c r="AC78" s="16">
+      <c r="AC78" s="15">
         <v>1.94689446430067</v>
       </c>
       <c r="AD78" s="5">
         <v>0.206258742222289</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:30">
-      <c r="A79" s="28" t="s">
+    <row r="79" spans="1:30">
+      <c r="A79" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="18">
-        <v>1</v>
-      </c>
-      <c r="D79" s="18">
+      <c r="C79" s="17">
+        <v>1</v>
+      </c>
+      <c r="D79" s="17">
         <v>958</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E79" s="17">
         <v>626</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="17">
         <v>332</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="17">
         <v>9</v>
       </c>
-      <c r="H79" s="18">
+      <c r="H79" s="17">
         <v>27</v>
       </c>
-      <c r="I79" s="18">
-        <v>0</v>
-      </c>
-      <c r="J79" s="18">
+      <c r="I79" s="17">
+        <v>0</v>
+      </c>
+      <c r="J79" s="17">
         <v>621</v>
       </c>
-      <c r="K79" s="18">
+      <c r="K79" s="17">
         <v>179424673</v>
       </c>
-      <c r="L79" s="18">
+      <c r="L79" s="17">
         <v>0.040324092</v>
       </c>
-      <c r="M79" s="18">
+      <c r="M79" s="17">
         <v>4.759510567</v>
       </c>
-      <c r="N79" s="18">
+      <c r="N79" s="17">
         <v>41.4577365</v>
       </c>
-      <c r="O79" s="31">
+      <c r="O79" s="28">
         <v>1.8e-8</v>
       </c>
-      <c r="P79" s="18">
+      <c r="P79" s="17">
         <v>1.269568487</v>
       </c>
-      <c r="Q79" s="18">
+      <c r="Q79" s="17">
         <v>0.1780669</v>
       </c>
-      <c r="R79" s="18">
+      <c r="R79" s="17">
         <v>5</v>
       </c>
-      <c r="S79" s="18">
+      <c r="S79" s="17">
         <v>1.8</v>
       </c>
-      <c r="T79" s="18">
+      <c r="T79" s="17">
         <v>0.239248434</v>
       </c>
-      <c r="U79" s="18">
+      <c r="U79" s="17">
         <v>0.829592769</v>
       </c>
-      <c r="V79" s="18">
+      <c r="V79" s="17">
         <v>0.196659708</v>
       </c>
-      <c r="W79" s="18">
+      <c r="W79" s="17">
         <v>0.300958466</v>
       </c>
-      <c r="X79" s="18">
+      <c r="X79" s="17">
         <v>0.122891566</v>
       </c>
-      <c r="Y79" s="18">
+      <c r="Y79" s="17">
         <v>0.584664537</v>
       </c>
-      <c r="Z79" s="18">
+      <c r="Z79" s="17">
         <v>188.4</v>
       </c>
-      <c r="AA79" s="18">
+      <c r="AA79" s="17">
         <v>40.8</v>
       </c>
-      <c r="AB79" s="18">
+      <c r="AB79" s="17">
         <v>1.06952748417842</v>
       </c>
-      <c r="AC79" s="18">
+      <c r="AC79" s="17">
         <v>1.90381122436173</v>
       </c>
       <c r="AD79" s="8">
         <v>0.56565889757318</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:30">
-      <c r="A80" s="27" t="s">
+    <row r="80" spans="1:30">
+      <c r="A80" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="16">
-        <v>1</v>
-      </c>
-      <c r="D80" s="16">
+      <c r="C80" s="15">
+        <v>1</v>
+      </c>
+      <c r="D80" s="15">
         <v>10</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E80" s="15">
         <v>5</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="15">
         <v>5</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G80" s="15">
         <v>32</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H80" s="15">
         <v>77</v>
       </c>
-      <c r="I80" s="16">
-        <v>0</v>
-      </c>
-      <c r="J80" s="16">
+      <c r="I80" s="15">
+        <v>0</v>
+      </c>
+      <c r="J80" s="15">
         <v>1386</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K80" s="15">
         <v>179424673</v>
       </c>
-      <c r="L80" s="16">
+      <c r="L80" s="15">
         <v>0.13</v>
       </c>
-      <c r="M80" s="16">
+      <c r="M80" s="15">
         <v>2.5</v>
       </c>
-      <c r="N80" s="16">
+      <c r="N80" s="15">
         <v>3.523809524</v>
       </c>
-      <c r="O80" s="16">
+      <c r="O80" s="15">
         <v>0.094531081</v>
       </c>
-      <c r="P80" s="16">
+      <c r="P80" s="15">
         <v>1.9</v>
       </c>
-      <c r="Q80" s="16">
+      <c r="Q80" s="15">
         <v>0.52</v>
       </c>
-      <c r="R80" s="16">
+      <c r="R80" s="15">
         <v>5</v>
       </c>
-      <c r="S80" s="16">
-        <v>1</v>
-      </c>
-      <c r="T80" s="16">
+      <c r="S80" s="15">
+        <v>1</v>
+      </c>
+      <c r="T80" s="15">
         <v>0.3</v>
       </c>
-      <c r="U80" s="16">
+      <c r="U80" s="15">
         <v>0.95</v>
       </c>
-      <c r="V80" s="16">
+      <c r="V80" s="15">
         <v>0.28</v>
       </c>
-      <c r="W80" s="16">
+      <c r="W80" s="15">
         <v>0.56</v>
       </c>
-      <c r="X80" s="16">
+      <c r="X80" s="15">
         <v>0.04</v>
       </c>
-      <c r="Y80" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z80" s="16">
+      <c r="Y80" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z80" s="15">
         <v>2.8</v>
       </c>
-      <c r="AA80" s="16">
+      <c r="AA80" s="15">
         <v>0.2</v>
       </c>
-      <c r="AB80" s="16">
+      <c r="AB80" s="15">
         <v>0.866666666666666</v>
       </c>
-      <c r="AC80" s="16">
+      <c r="AC80" s="15">
         <v>1.6094379124341</v>
       </c>
       <c r="AD80" s="5">
         <v>0.71</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:30">
-      <c r="A81" s="28" t="s">
+    <row r="81" spans="1:30">
+      <c r="A81" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="18">
-        <v>1</v>
-      </c>
-      <c r="D81" s="18">
+      <c r="C81" s="17">
+        <v>1</v>
+      </c>
+      <c r="D81" s="17">
         <v>435</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="17">
         <v>267</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="17">
         <v>168</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="17">
         <v>16</v>
       </c>
-      <c r="H81" s="18">
+      <c r="H81" s="17">
         <v>32</v>
       </c>
-      <c r="I81" s="18">
-        <v>0</v>
-      </c>
-      <c r="J81" s="18">
+      <c r="I81" s="17">
+        <v>0</v>
+      </c>
+      <c r="J81" s="17">
         <v>896</v>
       </c>
-      <c r="K81" s="18">
+      <c r="K81" s="17">
         <v>179424673</v>
       </c>
-      <c r="L81" s="18">
+      <c r="L81" s="17">
         <v>0.195361078</v>
       </c>
-      <c r="M81" s="18">
+      <c r="M81" s="17">
         <v>45.89333333</v>
       </c>
-      <c r="N81" s="18">
+      <c r="N81" s="17">
         <v>284.4639381</v>
       </c>
-      <c r="O81" s="18">
-        <v>0</v>
-      </c>
-      <c r="P81" s="18">
+      <c r="O81" s="17">
+        <v>0</v>
+      </c>
+      <c r="P81" s="17">
         <v>1.600935525</v>
       </c>
-      <c r="Q81" s="18">
+      <c r="Q81" s="17">
         <v>0.824130551</v>
       </c>
-      <c r="R81" s="18">
+      <c r="R81" s="17">
         <v>5</v>
       </c>
-      <c r="S81" s="18">
+      <c r="S81" s="17">
         <v>1.8</v>
       </c>
-      <c r="T81" s="18">
+      <c r="T81" s="17">
         <v>0.529655172</v>
       </c>
-      <c r="U81" s="18">
+      <c r="U81" s="17">
         <v>0.982643184</v>
       </c>
-      <c r="V81" s="18">
+      <c r="V81" s="17">
         <v>0.52045977</v>
       </c>
-      <c r="W81" s="18">
+      <c r="W81" s="17">
         <v>0.847940075</v>
       </c>
-      <c r="X81" s="18">
+      <c r="X81" s="17">
         <v>0.023809524</v>
       </c>
-      <c r="Y81" s="18">
+      <c r="Y81" s="17">
         <v>0.947565543</v>
       </c>
-      <c r="Z81" s="18">
+      <c r="Z81" s="17">
         <v>226.4</v>
       </c>
-      <c r="AA81" s="18">
+      <c r="AA81" s="17">
         <v>4</v>
       </c>
-      <c r="AB81" s="18">
+      <c r="AB81" s="17">
         <v>0.839966475095785</v>
       </c>
-      <c r="AC81" s="18">
+      <c r="AC81" s="17">
         <v>1.48611096746525</v>
       </c>
       <c r="AD81" s="8">
         <v>1.68553938586639</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:30">
-      <c r="A82" s="25" t="s">
+    <row r="82" spans="1:30">
+      <c r="A82" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -13611,7 +13595,7 @@
       <c r="N82" s="2">
         <v>182.113466352074</v>
       </c>
-      <c r="O82" s="30">
+      <c r="O82" s="27">
         <v>0</v>
       </c>
       <c r="P82" s="2">
@@ -13660,8 +13644,8 @@
         <v>1.67613052642187</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:30">
-      <c r="A83" s="26" t="s">
+    <row r="83" spans="1:30">
+      <c r="A83" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -13703,7 +13687,7 @@
       <c r="N83" s="6">
         <v>20.403324192858</v>
       </c>
-      <c r="O83" s="29">
+      <c r="O83" s="26">
         <v>7.83165608091884e-5</v>
       </c>
       <c r="P83" s="6">
@@ -13752,8 +13736,8 @@
         <v>1.18448148962161</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:30">
-      <c r="A84" s="25" t="s">
+    <row r="84" spans="1:30">
+      <c r="A84" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -13795,7 +13779,7 @@
       <c r="N84" s="2">
         <v>37.049052017591</v>
       </c>
-      <c r="O84" s="30">
+      <c r="O84" s="27">
         <v>9.96770967987004e-9</v>
       </c>
       <c r="P84" s="2">
@@ -13844,8 +13828,8 @@
         <v>1.05072508802876</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:30">
-      <c r="A85" s="26" t="s">
+    <row r="85" spans="1:30">
+      <c r="A85" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -13887,7 +13871,7 @@
       <c r="N85" s="6">
         <v>172.800367593094</v>
       </c>
-      <c r="O85" s="29">
+      <c r="O85" s="26">
         <v>4.03132462967192e-8</v>
       </c>
       <c r="P85" s="6">
@@ -13936,8 +13920,8 @@
         <v>0.348571428571428</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:30">
-      <c r="A86" s="25" t="s">
+    <row r="86" spans="1:30">
+      <c r="A86" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -13979,7 +13963,7 @@
       <c r="N86" s="2">
         <v>1069.53222515533</v>
       </c>
-      <c r="O86" s="30">
+      <c r="O86" s="27">
         <v>0</v>
       </c>
       <c r="P86" s="2">
@@ -14028,8 +14012,8 @@
         <v>1.42624565552038</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:30">
-      <c r="A87" s="26" t="s">
+    <row r="87" spans="1:30">
+      <c r="A87" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -14071,7 +14055,7 @@
       <c r="N87" s="6">
         <v>12.7317283784103</v>
       </c>
-      <c r="O87" s="29">
+      <c r="O87" s="26">
         <v>0.000438493317562627</v>
       </c>
       <c r="P87" s="6">
@@ -14120,8 +14104,8 @@
         <v>1.22663558663558</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:30">
-      <c r="A88" s="25" t="s">
+    <row r="88" spans="1:30">
+      <c r="A88" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -14163,7 +14147,7 @@
       <c r="N88" s="2">
         <v>17.3624706997392</v>
       </c>
-      <c r="O88" s="30">
+      <c r="O88" s="27">
         <v>0.000255184946405062</v>
       </c>
       <c r="P88" s="2">
@@ -14212,8 +14196,8 @@
         <v>0.310032702222441</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:30">
-      <c r="A89" s="26" t="s">
+    <row r="89" spans="1:30">
+      <c r="A89" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -14304,8 +14288,8 @@
         <v>0.3166614039274</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:30">
-      <c r="A90" s="25" t="s">
+    <row r="90" spans="1:30">
+      <c r="A90" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -14396,8 +14380,8 @@
         <v>1.34505374104577</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:30">
-      <c r="A91" s="26" t="s">
+    <row r="91" spans="1:30">
+      <c r="A91" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -14484,12 +14468,12 @@
       <c r="AC91" s="6">
         <v>0.639406312608182</v>
       </c>
-      <c r="AD91" s="11">
+      <c r="AD91" s="10">
         <v>0.000185185185185185</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:30">
-      <c r="A92" s="25" t="s">
+    <row r="92" spans="1:30">
+      <c r="A92" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -14580,8 +14564,8 @@
         <v>0.214644926662444</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:30">
-      <c r="A93" s="26" t="s">
+    <row r="93" spans="1:30">
+      <c r="A93" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -14623,7 +14607,7 @@
       <c r="N93" s="6">
         <v>71.9897816361317</v>
       </c>
-      <c r="O93" s="29">
+      <c r="O93" s="26">
         <v>2.22044604925031e-17</v>
       </c>
       <c r="P93" s="6">
@@ -14672,8 +14656,8 @@
         <v>1.70586979698077</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:30">
-      <c r="A94" s="25" t="s">
+    <row r="94" spans="1:30">
+      <c r="A94" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -14764,8 +14748,8 @@
         <v>0.420982905982906</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:30">
-      <c r="A95" s="26" t="s">
+    <row r="95" spans="1:30">
+      <c r="A95" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -14807,7 +14791,7 @@
       <c r="N95" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O95" s="29" t="s">
+      <c r="O95" s="26" t="s">
         <v>35</v>
       </c>
       <c r="P95" s="6">
@@ -14856,8 +14840,8 @@
         <v>0.0660605476610192</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:30">
-      <c r="A96" s="25" t="s">
+    <row r="96" spans="1:30">
+      <c r="A96" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -14899,7 +14883,7 @@
       <c r="N96" s="2">
         <v>233.994915545703</v>
       </c>
-      <c r="O96" s="30">
+      <c r="O96" s="27">
         <v>0</v>
       </c>
       <c r="P96" s="2">
@@ -14948,8 +14932,8 @@
         <v>1.36003787904126</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:30">
-      <c r="A97" s="26" t="s">
+    <row r="97" spans="1:30">
+      <c r="A97" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -15040,8 +15024,8 @@
         <v>1.03453625431009</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:30">
-      <c r="A98" s="25" t="s">
+    <row r="98" spans="1:30">
+      <c r="A98" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -15132,8 +15116,8 @@
         <v>0.175729418415737</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:30">
-      <c r="A99" s="26" t="s">
+    <row r="99" spans="1:30">
+      <c r="A99" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -15175,7 +15159,7 @@
       <c r="N99" s="6">
         <v>41.4577365004107</v>
       </c>
-      <c r="O99" s="29">
+      <c r="O99" s="26">
         <v>1.80379196024205e-8</v>
       </c>
       <c r="P99" s="6">
@@ -15224,8 +15208,8 @@
         <v>0.56565889757318</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:30">
-      <c r="A100" s="25" t="s">
+    <row r="100" spans="1:30">
+      <c r="A100" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -15316,8 +15300,8 @@
         <v>0.972380952380952</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:30">
-      <c r="A101" s="26" t="s">
+    <row r="101" spans="1:30">
+      <c r="A101" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B101" s="6" t="s">
@@ -15359,7 +15343,7 @@
       <c r="N101" s="6">
         <v>272.367712614256</v>
       </c>
-      <c r="O101" s="29">
+      <c r="O101" s="26">
         <v>0</v>
       </c>
       <c r="P101" s="6">
@@ -15410,11 +15394,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AD101">
-    <filterColumn colId="17">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -15428,7 +15407,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -15436,11 +15415,11 @@
     <col min="1" max="1" width="33.2857142857143" customWidth="1"/>
     <col min="2" max="4" width="14"/>
     <col min="5" max="6" width="12.8571428571429"/>
-    <col min="7" max="7" width="8.28571428571429" customWidth="1"/>
-    <col min="8" max="8" width="7.85714285714286" customWidth="1"/>
-    <col min="9" max="9" width="7.14285714285714" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="7.85714285714286" customWidth="1"/>
+    <col min="7" max="8" width="8.28571428571429" customWidth="1"/>
+    <col min="9" max="9" width="7.85714285714286" customWidth="1"/>
+    <col min="10" max="10" width="7.14285714285714" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="7.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15491,7 +15470,7 @@
       <c r="D2" s="2">
         <v>0.002231968</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.173110659</v>
       </c>
       <c r="F2" s="2">
@@ -15509,7 +15488,7 @@
         <f t="shared" ref="J2:J21" si="2">_xlfn.RANK.AVG(D2,B2:F2)</f>
         <v>4</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <f t="shared" ref="K2:K21" si="3">_xlfn.RANK.AVG(E2,B2:F2)</f>
         <v>2</v>
       </c>
@@ -15531,7 +15510,7 @@
       <c r="D3" s="6">
         <v>0.025221282</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>0.062929728</v>
       </c>
       <c r="F3" s="6">
@@ -15549,7 +15528,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15571,7 +15550,7 @@
       <c r="D4" s="2">
         <v>0.032290249</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.137687075</v>
       </c>
       <c r="F4" s="2">
@@ -15589,7 +15568,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -15611,7 +15590,7 @@
       <c r="D5" s="6">
         <v>0.047807356</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>0.058680556</v>
       </c>
       <c r="F5" s="6">
@@ -15629,7 +15608,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -15651,7 +15630,7 @@
       <c r="D6" s="2">
         <v>0.007679636</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.156364319</v>
       </c>
       <c r="F6" s="2">
@@ -15669,7 +15648,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15691,7 +15670,7 @@
       <c r="D7" s="6">
         <v>0.020507812</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>0.128125</v>
       </c>
       <c r="F7" s="6">
@@ -15709,7 +15688,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -15731,7 +15710,7 @@
       <c r="D8" s="2">
         <v>-0.004716981</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>0.077358491</v>
       </c>
       <c r="F8" s="2">
@@ -15749,7 +15728,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15771,7 +15750,7 @@
       <c r="D9" s="6">
         <v>0.02374552</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>0.054032258</v>
       </c>
       <c r="F9" s="6">
@@ -15789,7 +15768,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -15811,7 +15790,7 @@
       <c r="D10" s="2">
         <v>0.113614973</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0.185229969</v>
       </c>
       <c r="F10" s="2">
@@ -15829,7 +15808,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15851,7 +15830,7 @@
       <c r="D11" s="6">
         <v>0.222222222</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>0.044444444</v>
       </c>
       <c r="F11" s="6">
@@ -15869,7 +15848,7 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="18">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -15891,7 +15870,7 @@
       <c r="D12" s="2">
         <v>0.014567901</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0.02617284</v>
       </c>
       <c r="F12" s="2">
@@ -15909,7 +15888,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -15931,7 +15910,7 @@
       <c r="D13" s="6">
         <v>0.009371655</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0.083305923</v>
       </c>
       <c r="F13" s="6">
@@ -15949,7 +15928,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -15971,7 +15950,7 @@
       <c r="D14" s="2">
         <v>0.08</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.072</v>
       </c>
       <c r="F14" s="2">
@@ -15989,7 +15968,7 @@
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -16011,7 +15990,7 @@
       <c r="D15" s="6">
         <v>0.214092239</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>0.093171154</v>
       </c>
       <c r="F15" s="6">
@@ -16029,7 +16008,7 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -16051,7 +16030,7 @@
       <c r="D16" s="2">
         <v>0.007494282</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0.090962059</v>
       </c>
       <c r="F16" s="2">
@@ -16069,7 +16048,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16091,7 +16070,7 @@
       <c r="D17" s="6">
         <v>-0.012339501</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>0.029609082</v>
       </c>
       <c r="F17" s="6">
@@ -16109,7 +16088,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16131,7 +16110,7 @@
       <c r="D18" s="2">
         <v>-0.001367911</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>0.051757255</v>
       </c>
       <c r="F18" s="2">
@@ -16149,7 +16128,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16171,7 +16150,7 @@
       <c r="D19" s="6">
         <v>0.023289212</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>0.040324092</v>
       </c>
       <c r="F19" s="6">
@@ -16189,7 +16168,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="18">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -16211,7 +16190,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>0.13</v>
       </c>
       <c r="F20" s="2">
@@ -16229,7 +16208,7 @@
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -16251,7 +16230,7 @@
       <c r="D21" s="6">
         <v>0.120787422</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>0.195361078</v>
       </c>
       <c r="F21" s="6">
@@ -16269,7 +16248,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -16279,39 +16258,39 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <f>MIN(B2:B21)</f>
         <v>-0.01798736</v>
       </c>
@@ -16323,7 +16302,7 @@
         <f>MIN(D2:D21)</f>
         <v>-0.012339501</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <f>MIN(E2:E21)</f>
         <v>0.02617284</v>
       </c>
@@ -16331,7 +16310,7 @@
         <f>MIN(F2:F21)</f>
         <v>0.0266666666666666</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <f>AVERAGE(H2:H21)</f>
         <v>4.225</v>
       </c>
@@ -16343,7 +16322,7 @@
         <f>AVERAGE(J2:J21)</f>
         <v>3.9</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <f>AVERAGE(K2:K21)</f>
         <v>2.15</v>
       </c>
@@ -16353,7 +16332,7 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <f>QUARTILE(B2:B21,1)</f>
         <v>0</v>
       </c>
@@ -16365,7 +16344,7 @@
         <f>QUARTILE(D2:D21,1)</f>
         <v>0.0061787035</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <f>QUARTILE(E2:E21,1)</f>
         <v>0.05346350725</v>
       </c>
@@ -16375,7 +16354,7 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <f>QUARTILE(B2:B21,2)</f>
         <v>0</v>
       </c>
@@ -16387,7 +16366,7 @@
         <f>QUARTILE(D2:D21,2)</f>
         <v>0.021898512</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <f>QUARTILE(E2:E21,2)</f>
         <v>0.080332207</v>
       </c>
@@ -16397,7 +16376,7 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <f>QUARTILE(B2:B21,3)</f>
         <v>0.03789567475</v>
       </c>
@@ -16409,7 +16388,7 @@
         <f>QUARTILE(D2:D21,3)</f>
         <v>0.055855517</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <f>QUARTILE(E2:E21,3)</f>
         <v>0.13192176875</v>
       </c>
@@ -16419,7 +16398,7 @@
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <f>MAX(B2:B21)</f>
         <v>0.111111111</v>
       </c>
@@ -16431,7 +16410,7 @@
         <f>MAX(D2:D21)</f>
         <v>0.222222222</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <f>MAX(E2:E21)</f>
         <v>0.195361078</v>
       </c>
@@ -16441,24 +16420,24 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <f>MIN(B2:B21)</f>
         <v>-0.01798736</v>
       </c>
@@ -16470,7 +16449,7 @@
         <f>MIN(D2:D21)</f>
         <v>-0.012339501</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <f>MIN(E2:E21)</f>
         <v>0.02617284</v>
       </c>
@@ -16480,7 +16459,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <f>QUARTILE(B2:B21,1)-B31</f>
         <v>0.01798736</v>
       </c>
@@ -16492,7 +16471,7 @@
         <f>QUARTILE(D2:D21,1)-D31</f>
         <v>0.0185182045</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <f>QUARTILE(E2:E21,1)-E31</f>
         <v>0.02729066725</v>
       </c>
@@ -16502,7 +16481,7 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <f>QUARTILE(B2:B21,2)-B32-B31</f>
         <v>0</v>
       </c>
@@ -16514,7 +16493,7 @@
         <f>QUARTILE(D2:D21,2)-D32-D31</f>
         <v>0.0157198085</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <f>QUARTILE(E2:E21,2)-E32-E31</f>
         <v>0.02686869975</v>
       </c>
@@ -16524,7 +16503,7 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <f>QUARTILE(B2:B21,3)-B33-B32-B31</f>
         <v>0.03789567475</v>
       </c>
@@ -16536,7 +16515,7 @@
         <f>QUARTILE(D2:D21,3)-D33-D32-D31</f>
         <v>0.033957005</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <f>QUARTILE(E2:E21,3)-E33-E32-E31</f>
         <v>0.05158956175</v>
       </c>
@@ -16546,7 +16525,7 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <f>MAX(B2:B21)-B34-B33-B32-B31</f>
         <v>0.07321543625</v>
       </c>
@@ -16558,7 +16537,7 @@
         <f>MAX(D2:D21)-D34-D33-D32-D31</f>
         <v>0.166366705</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <f>MAX(E2:E21)-E34-E33-E32-E31</f>
         <v>0.06343930925</v>
       </c>
@@ -16592,13 +16571,18 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.2857142857143" customWidth="1"/>
     <col min="2" max="6" width="12.8571428571429"/>
+    <col min="8" max="8" width="8.28571428571429" customWidth="1"/>
+    <col min="9" max="9" width="7.85714285714286" customWidth="1"/>
+    <col min="10" max="10" width="7.14285714285714" customWidth="1"/>
+    <col min="11" max="11" width="6.57142857142857" customWidth="1"/>
+    <col min="12" max="12" width="7.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -16649,30 +16633,30 @@
       <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1.46017699115044</v>
       </c>
       <c r="F2" s="2">
         <v>1.38102101409587</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H7" si="0">IF(B2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(B2,B2:F2,1))</f>
+        <f t="shared" ref="H2:H21" si="0">IF(B2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(B2,B2:F2,1))</f>
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I7" si="1">IF(C2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(C2,B2:F2,1))</f>
+        <f t="shared" ref="I2:I21" si="1">IF(C2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(C2,B2:F2,1))</f>
         <v>4</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J7" si="2">IF(D2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(D2,B2:F2,1))</f>
+        <f t="shared" ref="J2:J21" si="2">IF(D2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(D2,B2:F2,1))</f>
         <v>4</v>
       </c>
-      <c r="K2" s="16">
-        <f t="shared" ref="K2:K7" si="3">IF(E2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(E2,B2:F2,1))</f>
+      <c r="K2" s="15">
+        <f t="shared" ref="K2:K21" si="3">IF(E2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(E2,B2:F2,1))</f>
         <v>2</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:L7" si="4">IF(F2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(F2,B2:F2,1))</f>
+        <f t="shared" ref="L2:L21" si="4">IF(F2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(F2,B2:F2,1))</f>
         <v>1</v>
       </c>
     </row>
@@ -16686,32 +16670,32 @@
       <c r="C3" s="7">
         <v>0.522285445</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>0.595516970129972</v>
       </c>
       <c r="F3" s="6">
         <v>0.53537821771621</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -16729,7 +16713,7 @@
       <c r="D4" s="3">
         <v>1.79047619047619</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.845421245421246</v>
       </c>
       <c r="F4" s="2">
@@ -16747,7 +16731,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16769,29 +16753,29 @@
       <c r="D5" s="7">
         <v>0.444444444444442</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>0.57407407407408</v>
       </c>
       <c r="F5" s="6">
         <v>0.57407407407408</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
@@ -16809,7 +16793,7 @@
       <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>1.16460527560849</v>
       </c>
       <c r="F6" s="2">
@@ -16827,7 +16811,7 @@
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -16846,32 +16830,32 @@
       <c r="C7" s="7">
         <v>0.805631868</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>1.14583333333333</v>
       </c>
       <c r="F7" s="6">
         <v>1.16304347826086</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -16889,30 +16873,30 @@
       <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>0.924528301886792</v>
       </c>
       <c r="F8" s="2">
         <v>0.924528301886792</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(B8="NaN",5.5-COUNTIF(B8:F8,"NaN")*0.5,_xlfn.RANK.AVG(B8,B8:F8,1))</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="I8" s="2">
-        <f>IF(C8="NaN",5.5-COUNTIF(B8:F8,"NaN")*0.5,_xlfn.RANK.AVG(C8,B8:F8,1))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J8" s="2">
-        <f>IF(D8="NaN",5.5-COUNTIF(B8:F8,"NaN")*0.5,_xlfn.RANK.AVG(D8,B8:F8,1))</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K8" s="16">
-        <f>IF(E8="NaN",5.5-COUNTIF(B8:F8,"NaN")*0.5,_xlfn.RANK.AVG(E8,B8:F8,1))</f>
+      <c r="K8" s="15">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="L8" s="2">
-        <f>IF(F8="NaN",5.5-COUNTIF(B8:F8,"NaN")*0.5,_xlfn.RANK.AVG(F8,B8:F8,1))</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
@@ -16923,36 +16907,36 @@
       <c r="B9" s="7">
         <v>0.903225806451612</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="7">
         <v>0.806451612903225</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>0.96911727931983</v>
       </c>
       <c r="F9" s="6">
         <v>0.707541123691518</v>
       </c>
-      <c r="H9" s="9">
-        <f>IF(B9="NaN",5.5-COUNTIF(B9:F9,"NaN")*0.5,_xlfn.RANK.AVG(B9,B9:F9,1))</f>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I9" s="9">
-        <f>IF(C9="NaN",5.5-COUNTIF(B9:F9,"NaN")*0.5,_xlfn.RANK.AVG(C9,B9:F9,1))</f>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J9" s="9">
-        <f>IF(D9="NaN",5.5-COUNTIF(B9:F9,"NaN")*0.5,_xlfn.RANK.AVG(D9,B9:F9,1))</f>
+      <c r="J9" s="6">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K9" s="19">
-        <f>IF(E9="NaN",5.5-COUNTIF(B9:F9,"NaN")*0.5,_xlfn.RANK.AVG(E9,B9:F9,1))</f>
+      <c r="K9" s="18">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L9" s="9">
-        <f>IF(F9="NaN",5.5-COUNTIF(B9:F9,"NaN")*0.5,_xlfn.RANK.AVG(F9,B9:F9,1))</f>
+      <c r="L9" s="6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -16969,30 +16953,30 @@
       <c r="D10" s="3">
         <v>0.800590841949767</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0.959920945236775</v>
       </c>
       <c r="F10" s="2">
         <v>0.929470318497049</v>
       </c>
       <c r="H10" s="2">
-        <f>IF(B10="NaN",5.5-COUNTIF(B10:F10,"NaN")*0.5,_xlfn.RANK.AVG(B10,B10:F10,1))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I10" s="2">
-        <f>IF(C10="NaN",5.5-COUNTIF(B10:F10,"NaN")*0.5,_xlfn.RANK.AVG(C10,B10:F10,1))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <f>IF(D10="NaN",5.5-COUNTIF(B10:F10,"NaN")*0.5,_xlfn.RANK.AVG(D10,B10:F10,1))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K10" s="16">
-        <f>IF(E10="NaN",5.5-COUNTIF(B10:F10,"NaN")*0.5,_xlfn.RANK.AVG(E10,B10:F10,1))</f>
+      <c r="K10" s="15">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L10" s="2">
-        <f>IF(F10="NaN",5.5-COUNTIF(B10:F10,"NaN")*0.5,_xlfn.RANK.AVG(F10,B10:F10,1))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -17003,36 +16987,36 @@
       <c r="B11" s="7">
         <v>0.666666666666666</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>0.371014492753681</v>
       </c>
       <c r="F11" s="6">
         <v>1.33333333333335</v>
       </c>
-      <c r="H11" s="9">
-        <f>IF(B11="NaN",5.5-COUNTIF(B11:F11,"NaN")*0.5,_xlfn.RANK.AVG(B11,B11:F11,1))</f>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I11" s="9">
-        <f>IF(C11="NaN",5.5-COUNTIF(B11:F11,"NaN")*0.5,_xlfn.RANK.AVG(C11,B11:F11,1))</f>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="J11" s="9">
-        <f>IF(D11="NaN",5.5-COUNTIF(B11:F11,"NaN")*0.5,_xlfn.RANK.AVG(D11,B11:F11,1))</f>
+      <c r="J11" s="6">
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K11" s="19">
-        <f>IF(E11="NaN",5.5-COUNTIF(B11:F11,"NaN")*0.5,_xlfn.RANK.AVG(E11,B11:F11,1))</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="9">
-        <f>IF(F11="NaN",5.5-COUNTIF(B11:F11,"NaN")*0.5,_xlfn.RANK.AVG(F11,B11:F11,1))</f>
+      <c r="K11" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -17049,30 +17033,30 @@
       <c r="D12" s="3">
         <v>0.26887417218543</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0.941414141414141</v>
       </c>
       <c r="F12" s="2">
         <v>0.711111111111111</v>
       </c>
       <c r="H12" s="2">
-        <f>IF(B12="NaN",5.5-COUNTIF(B12:F12,"NaN")*0.5,_xlfn.RANK.AVG(B12,B12:F12,1))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <f>IF(C12="NaN",5.5-COUNTIF(B12:F12,"NaN")*0.5,_xlfn.RANK.AVG(C12,B12:F12,1))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J12" s="2">
-        <f>IF(D12="NaN",5.5-COUNTIF(B12:F12,"NaN")*0.5,_xlfn.RANK.AVG(D12,B12:F12,1))</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="16">
-        <f>IF(E12="NaN",5.5-COUNTIF(B12:F12,"NaN")*0.5,_xlfn.RANK.AVG(E12,B12:F12,1))</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L12" s="2">
-        <f>IF(F12="NaN",5.5-COUNTIF(B12:F12,"NaN")*0.5,_xlfn.RANK.AVG(F12,B12:F12,1))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -17086,33 +17070,33 @@
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>1.45722713864306</v>
       </c>
       <c r="F13" s="6">
         <v>1.4582248828735</v>
       </c>
-      <c r="H13" s="9">
-        <f>IF(B13="NaN",5.5-COUNTIF(B13:F13,"NaN")*0.5,_xlfn.RANK.AVG(B13,B13:F13,1))</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="9">
-        <f>IF(C13="NaN",5.5-COUNTIF(B13:F13,"NaN")*0.5,_xlfn.RANK.AVG(C13,B13:F13,1))</f>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="J13" s="9">
-        <f>IF(D13="NaN",5.5-COUNTIF(B13:F13,"NaN")*0.5,_xlfn.RANK.AVG(D13,B13:F13,1))</f>
+      <c r="J13" s="6">
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K13" s="19">
-        <f>IF(E13="NaN",5.5-COUNTIF(B13:F13,"NaN")*0.5,_xlfn.RANK.AVG(E13,B13:F13,1))</f>
+      <c r="K13" s="18">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L13" s="9">
-        <f>IF(F13="NaN",5.5-COUNTIF(B13:F13,"NaN")*0.5,_xlfn.RANK.AVG(F13,B13:F13,1))</f>
+      <c r="L13" s="6">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -17123,36 +17107,36 @@
       <c r="B14" s="3">
         <v>0.516666666666666</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.289430894308943</v>
       </c>
       <c r="F14" s="2">
         <v>0.4</v>
       </c>
       <c r="H14" s="2">
-        <f>IF(B14="NaN",5.5-COUNTIF(B14:F14,"NaN")*0.5,_xlfn.RANK.AVG(B14,B14:F14,1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f>IF(C14="NaN",5.5-COUNTIF(B14:F14,"NaN")*0.5,_xlfn.RANK.AVG(C14,B14:F14,1))</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="J14" s="2">
-        <f>IF(D14="NaN",5.5-COUNTIF(B14:F14,"NaN")*0.5,_xlfn.RANK.AVG(D14,B14:F14,1))</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K14" s="16">
-        <f>IF(E14="NaN",5.5-COUNTIF(B14:F14,"NaN")*0.5,_xlfn.RANK.AVG(E14,B14:F14,1))</f>
+      <c r="K14" s="15">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <f>IF(F14="NaN",5.5-COUNTIF(B14:F14,"NaN")*0.5,_xlfn.RANK.AVG(F14,B14:F14,1))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -17166,33 +17150,33 @@
       <c r="C15" s="7">
         <v>1.378986867</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>0.499491278219855</v>
       </c>
       <c r="F15" s="6">
         <v>0.330484726991456</v>
       </c>
-      <c r="H15" s="9">
-        <f>IF(B15="NaN",5.5-COUNTIF(B15:F15,"NaN")*0.5,_xlfn.RANK.AVG(B15,B15:F15,1))</f>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I15" s="9">
-        <f>IF(C15="NaN",5.5-COUNTIF(B15:F15,"NaN")*0.5,_xlfn.RANK.AVG(C15,B15:F15,1))</f>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J15" s="9">
-        <f>IF(D15="NaN",5.5-COUNTIF(B15:F15,"NaN")*0.5,_xlfn.RANK.AVG(D15,B15:F15,1))</f>
+      <c r="J15" s="6">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K15" s="19">
-        <f>IF(E15="NaN",5.5-COUNTIF(B15:F15,"NaN")*0.5,_xlfn.RANK.AVG(E15,B15:F15,1))</f>
+      <c r="K15" s="18">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L15" s="9">
-        <f>IF(F15="NaN",5.5-COUNTIF(B15:F15,"NaN")*0.5,_xlfn.RANK.AVG(F15,B15:F15,1))</f>
+      <c r="L15" s="6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -17209,30 +17193,30 @@
       <c r="D16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>1.38941114720426</v>
       </c>
       <c r="F16" s="2">
         <v>1.24472848253503</v>
       </c>
       <c r="H16" s="2">
-        <f>IF(B16="NaN",5.5-COUNTIF(B16:F16,"NaN")*0.5,_xlfn.RANK.AVG(B16,B16:F16,1))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I16" s="2">
-        <f>IF(C16="NaN",5.5-COUNTIF(B16:F16,"NaN")*0.5,_xlfn.RANK.AVG(C16,B16:F16,1))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J16" s="2">
-        <f>IF(D16="NaN",5.5-COUNTIF(B16:F16,"NaN")*0.5,_xlfn.RANK.AVG(D16,B16:F16,1))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K16" s="16">
-        <f>IF(E16="NaN",5.5-COUNTIF(B16:F16,"NaN")*0.5,_xlfn.RANK.AVG(E16,B16:F16,1))</f>
+      <c r="K16" s="15">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L16" s="2">
-        <f>IF(F16="NaN",5.5-COUNTIF(B16:F16,"NaN")*0.5,_xlfn.RANK.AVG(F16,B16:F16,1))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -17249,30 +17233,30 @@
       <c r="D17" s="7">
         <v>0.305375738812271</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>0.821525756447574</v>
       </c>
       <c r="F17" s="6">
         <v>0.742144890520658</v>
       </c>
-      <c r="H17" s="9">
-        <f>IF(B17="NaN",5.5-COUNTIF(B17:F17,"NaN")*0.5,_xlfn.RANK.AVG(B17,B17:F17,1))</f>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I17" s="9">
-        <f>IF(C17="NaN",5.5-COUNTIF(B17:F17,"NaN")*0.5,_xlfn.RANK.AVG(C17,B17:F17,1))</f>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J17" s="9">
-        <f>IF(D17="NaN",5.5-COUNTIF(B17:F17,"NaN")*0.5,_xlfn.RANK.AVG(D17,B17:F17,1))</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
-        <f>IF(E17="NaN",5.5-COUNTIF(B17:F17,"NaN")*0.5,_xlfn.RANK.AVG(E17,B17:F17,1))</f>
+      <c r="J17" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L17" s="9">
-        <f>IF(F17="NaN",5.5-COUNTIF(B17:F17,"NaN")*0.5,_xlfn.RANK.AVG(F17,B17:F17,1))</f>
+      <c r="L17" s="6">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -17289,30 +17273,30 @@
       <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>0.988087774294687</v>
       </c>
       <c r="F18" s="2">
         <v>0.920376175548598</v>
       </c>
       <c r="H18" s="2">
-        <f>IF(B18="NaN",5.5-COUNTIF(B18:F18,"NaN")*0.5,_xlfn.RANK.AVG(B18,B18:F18,1))</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="I18" s="2">
-        <f>IF(C18="NaN",5.5-COUNTIF(B18:F18,"NaN")*0.5,_xlfn.RANK.AVG(C18,B18:F18,1))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J18" s="2">
-        <f>IF(D18="NaN",5.5-COUNTIF(B18:F18,"NaN")*0.5,_xlfn.RANK.AVG(D18,B18:F18,1))</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K18" s="16">
-        <f>IF(E18="NaN",5.5-COUNTIF(B18:F18,"NaN")*0.5,_xlfn.RANK.AVG(E18,B18:F18,1))</f>
+      <c r="K18" s="15">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L18" s="2">
-        <f>IF(F18="NaN",5.5-COUNTIF(B18:F18,"NaN")*0.5,_xlfn.RANK.AVG(F18,B18:F18,1))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -17323,36 +17307,36 @@
       <c r="B19" s="7">
         <v>1.0438413361169</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="7">
         <v>0.435316409476937</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>1.06952748417842</v>
       </c>
       <c r="F19" s="6">
         <v>1.06952748417842</v>
       </c>
-      <c r="H19" s="9">
-        <f>IF(B19="NaN",5.5-COUNTIF(B19:F19,"NaN")*0.5,_xlfn.RANK.AVG(B19,B19:F19,1))</f>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I19" s="9">
-        <f>IF(C19="NaN",5.5-COUNTIF(B19:F19,"NaN")*0.5,_xlfn.RANK.AVG(C19,B19:F19,1))</f>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J19" s="9">
-        <f>IF(D19="NaN",5.5-COUNTIF(B19:F19,"NaN")*0.5,_xlfn.RANK.AVG(D19,B19:F19,1))</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
-        <f>IF(E19="NaN",5.5-COUNTIF(B19:F19,"NaN")*0.5,_xlfn.RANK.AVG(E19,B19:F19,1))</f>
+      <c r="J19" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="L19" s="9">
-        <f>IF(F19="NaN",5.5-COUNTIF(B19:F19,"NaN")*0.5,_xlfn.RANK.AVG(F19,B19:F19,1))</f>
+      <c r="L19" s="6">
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
     </row>
@@ -17369,30 +17353,30 @@
       <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>0.866666666666666</v>
       </c>
       <c r="F20" s="2">
         <v>0.8</v>
       </c>
       <c r="H20" s="2">
-        <f>IF(B20="NaN",5.5-COUNTIF(B20:F20,"NaN")*0.5,_xlfn.RANK.AVG(B20,B20:F20,1))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I20" s="2">
-        <f>IF(C20="NaN",5.5-COUNTIF(B20:F20,"NaN")*0.5,_xlfn.RANK.AVG(C20,B20:F20,1))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J20" s="2">
-        <f>IF(D20="NaN",5.5-COUNTIF(B20:F20,"NaN")*0.5,_xlfn.RANK.AVG(D20,B20:F20,1))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K20" s="16">
-        <f>IF(E20="NaN",5.5-COUNTIF(B20:F20,"NaN")*0.5,_xlfn.RANK.AVG(E20,B20:F20,1))</f>
+      <c r="K20" s="15">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L20" s="2">
-        <f>IF(F20="NaN",5.5-COUNTIF(B20:F20,"NaN")*0.5,_xlfn.RANK.AVG(F20,B20:F20,1))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -17403,73 +17387,73 @@
       <c r="B21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="7">
         <v>0.43450336291521</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>0.839966475095785</v>
       </c>
       <c r="F21" s="6">
         <v>0.788558214552908</v>
       </c>
-      <c r="H21" s="9">
-        <f>IF(B21="NaN",5.5-COUNTIF(B21:F21,"NaN")*0.5,_xlfn.RANK.AVG(B21,B21:F21,1))</f>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="I21" s="9">
-        <f>IF(C21="NaN",5.5-COUNTIF(B21:F21,"NaN")*0.5,_xlfn.RANK.AVG(C21,B21:F21,1))</f>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="J21" s="9">
-        <f>IF(D21="NaN",5.5-COUNTIF(B21:F21,"NaN")*0.5,_xlfn.RANK.AVG(D21,B21:F21,1))</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="19">
-        <f>IF(E21="NaN",5.5-COUNTIF(B21:F21,"NaN")*0.5,_xlfn.RANK.AVG(E21,B21:F21,1))</f>
+      <c r="J21" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L21" s="9">
-        <f>IF(F21="NaN",5.5-COUNTIF(B21:F21,"NaN")*0.5,_xlfn.RANK.AVG(F21,B21:F21,1))</f>
+      <c r="L21" s="6">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="8:12">
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <f t="shared" ref="H24:L24" si="5">AVERAGE(H2:H21)</f>
         <v>3.7</v>
       </c>
@@ -17481,7 +17465,7 @@
         <f t="shared" si="5"/>
         <v>3.275</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <f t="shared" si="5"/>
         <v>2.625</v>
       </c>
@@ -17491,7 +17475,7 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <f>MIN(B2:B21)</f>
         <v>0.389980439902605</v>
       </c>
@@ -17503,7 +17487,7 @@
         <f>MIN(D2:D21)</f>
         <v>0.26887417218543</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <f>MIN(E2:E21)</f>
         <v>0.289430894308943</v>
       </c>
@@ -17513,7 +17497,7 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <f>QUARTILE(B2:B21,1)</f>
         <v>0.525718429769676</v>
       </c>
@@ -17525,7 +17509,7 @@
         <f>QUARTILE(D2:D21,1)</f>
         <v>0.402221456889475</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <f>QUARTILE(E2:E21,1)</f>
         <v>0.765023559868173</v>
       </c>
@@ -17535,7 +17519,7 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <f>QUARTILE(B2:B21,2)</f>
         <v>0.777777777777776</v>
       </c>
@@ -17547,7 +17531,7 @@
         <f>QUARTILE(D2:D21,2)</f>
         <v>0.43988042696069</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <f>QUARTILE(E2:E21,2)</f>
         <v>0.932971221650467</v>
       </c>
@@ -17557,7 +17541,7 @@
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <f>QUARTILE(B2:B21,3)</f>
         <v>0.975806451612903</v>
       </c>
@@ -17569,7 +17553,7 @@
         <f>QUARTILE(D2:D21,3)</f>
         <v>0.802056034688132</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="17">
         <f>QUARTILE(E2:E21,3)</f>
         <v>1.08860394646715</v>
       </c>
@@ -17579,7 +17563,7 @@
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <f>MAX(B2:B21)</f>
         <v>1.20855614973262</v>
       </c>
@@ -17591,7 +17575,7 @@
         <f>MAX(D2:D21)</f>
         <v>1.79047619047619</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <f>MAX(E2:E21)</f>
         <v>1.46017699115044</v>
       </c>
@@ -17601,24 +17585,24 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <f>MIN(B2:B21)</f>
         <v>0.389980439902605</v>
       </c>
@@ -17630,7 +17614,7 @@
         <f>MIN(D2:D21)</f>
         <v>0.26887417218543</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <f>MIN(E2:E21)</f>
         <v>0.289430894308943</v>
       </c>
@@ -17640,7 +17624,7 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <f>QUARTILE(B2:B21,1)-B32</f>
         <v>0.135737989867071</v>
       </c>
@@ -17652,7 +17636,7 @@
         <f>QUARTILE(D2:D21,1)-D32</f>
         <v>0.133347284704045</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <f>QUARTILE(E2:E21,1)-E32</f>
         <v>0.475592665559231</v>
       </c>
@@ -17662,7 +17646,7 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <f>QUARTILE(B2:B21,2)-B33-B32</f>
         <v>0.2520593480081</v>
       </c>
@@ -17674,7 +17658,7 @@
         <f>QUARTILE(D2:D21,2)-D33-D32</f>
         <v>0.0376589700712143</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <f>QUARTILE(E2:E21,2)-E33-E32</f>
         <v>0.167947661782293</v>
       </c>
@@ -17684,7 +17668,7 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <f>QUARTILE(B2:B21,3)-B34-B33-B32</f>
         <v>0.198028673835127</v>
       </c>
@@ -17696,7 +17680,7 @@
         <f>QUARTILE(D2:D21,3)-D34-D33-D32</f>
         <v>0.362175607727442</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="17">
         <f>QUARTILE(E2:E21,3)-E34-E33-E32</f>
         <v>0.155632724816681</v>
       </c>
@@ -17706,7 +17690,7 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <f>MAX(B2:B21)-B35-B34-B33-B32</f>
         <v>0.232749698119717</v>
       </c>
@@ -17718,7 +17702,7 @@
         <f>MAX(D2:D21)-D35-D34-D33-D32</f>
         <v>0.988420155788059</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <f>MAX(E2:E21)-E35-E34-E33-E32</f>
         <v>0.371573044683293</v>
       </c>
@@ -17752,13 +17736,18 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H1" sqref="H$1:L$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.2857142857143" customWidth="1"/>
     <col min="2" max="6" width="12.8571428571429"/>
+    <col min="8" max="8" width="8.28571428571429" customWidth="1"/>
+    <col min="9" max="9" width="7.85714285714286" customWidth="1"/>
+    <col min="10" max="10" width="7.14285714285714" customWidth="1"/>
+    <col min="11" max="11" width="6.57142857142857" customWidth="1"/>
+    <col min="12" max="12" width="7.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -17809,7 +17798,7 @@
       <c r="D2" s="3">
         <v>0.0506455745968486</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.72635604925022</v>
       </c>
       <c r="F2" s="2">
@@ -17826,7 +17815,7 @@
         <f t="shared" ref="J2:J21" si="1">_xlfn.RANK.AVG(D2,B2:F2)</f>
         <v>3</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <f t="shared" ref="K2:K21" si="2">_xlfn.RANK.AVG(E2,B2:F2)</f>
         <v>2</v>
       </c>
@@ -17848,7 +17837,7 @@
       <c r="D3" s="7">
         <v>1.67711778589114</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>1.09352502149318</v>
       </c>
       <c r="F3" s="6">
@@ -17866,7 +17855,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -17888,7 +17877,7 @@
       <c r="D4" s="3">
         <v>0.335421706975023</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>1.37088463987025</v>
       </c>
       <c r="F4" s="2">
@@ -17906,7 +17895,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -17928,7 +17917,7 @@
       <c r="D5" s="7">
         <v>3.49631091449535</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>3.03421279412205</v>
       </c>
       <c r="F5" s="6">
@@ -17946,7 +17935,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
@@ -17968,7 +17957,7 @@
       <c r="D6" s="3">
         <v>0.0766488007761842</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.704064729935364</v>
       </c>
       <c r="F6" s="2">
@@ -17986,7 +17975,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -18008,7 +17997,7 @@
       <c r="D7" s="7">
         <v>0.594130022724838</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>1.49201196738174</v>
       </c>
       <c r="F7" s="6">
@@ -18026,7 +18015,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -18048,7 +18037,7 @@
       <c r="D8" s="3">
         <v>0.620153351355214</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>2.21680217413416</v>
       </c>
       <c r="F8" s="2">
@@ -18066,7 +18055,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
@@ -18088,7 +18077,7 @@
       <c r="D9" s="7">
         <v>1.69568418857772</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>1.61057723746952</v>
       </c>
       <c r="F9" s="6">
@@ -18106,7 +18095,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -18128,7 +18117,7 @@
       <c r="D10" s="3">
         <v>1.42722181211372</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>1.59383321628902</v>
       </c>
       <c r="F10" s="2">
@@ -18146,7 +18135,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -18168,7 +18157,7 @@
       <c r="D11" s="7">
         <v>0.636514168294812</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>2.23552888050111</v>
       </c>
       <c r="F11" s="6">
@@ -18186,7 +18175,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -18208,7 +18197,7 @@
       <c r="D12" s="3">
         <v>0.829080590807634</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>1.81770451456565</v>
       </c>
       <c r="F12" s="2">
@@ -18226,7 +18215,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -18248,7 +18237,7 @@
       <c r="D13" s="7">
         <v>0.319210164236431</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0.864182216608768</v>
       </c>
       <c r="F13" s="6">
@@ -18266,7 +18255,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="18">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -18288,7 +18277,7 @@
       <c r="D14" s="3">
         <v>0.392674467227552</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>1.71408754118701</v>
       </c>
       <c r="F14" s="2">
@@ -18306,7 +18295,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -18328,7 +18317,7 @@
       <c r="D15" s="7">
         <v>0.61950537848635</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>2.51085865512316</v>
       </c>
       <c r="F15" s="6">
@@ -18346,7 +18335,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -18368,7 +18357,7 @@
       <c r="D16" s="3">
         <v>0.214789547121484</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0.838407485408117</v>
       </c>
       <c r="F16" s="2">
@@ -18386,7 +18375,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -18408,7 +18397,7 @@
       <c r="D17" s="7">
         <v>0.957122108890714</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>2.02312894602474</v>
       </c>
       <c r="F17" s="6">
@@ -18426,7 +18415,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="18">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -18448,7 +18437,7 @@
       <c r="D18" s="3">
         <v>0.58595261830355</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>1.94689446430067</v>
       </c>
       <c r="F18" s="2">
@@ -18466,7 +18455,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -18488,7 +18477,7 @@
       <c r="D19" s="7">
         <v>3.27204498437922</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>1.90381122436173</v>
       </c>
       <c r="F19" s="6">
@@ -18506,7 +18495,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="18">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
@@ -18528,7 +18517,7 @@
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>1.6094379124341</v>
       </c>
       <c r="F20" s="2">
@@ -18545,7 +18534,7 @@
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -18567,7 +18556,7 @@
       <c r="D21" s="7">
         <v>1.60055832700633</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>1.48611096746525</v>
       </c>
       <c r="F21" s="6">
@@ -18585,7 +18574,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="18">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -18595,39 +18584,39 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <f>MIN(B2:B21)</f>
         <v>0</v>
       </c>
@@ -18639,7 +18628,7 @@
         <f>MIN(D2:D21)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <f>MIN(E2:E21)</f>
         <v>0.704064729935364</v>
       </c>
@@ -18647,7 +18636,7 @@
         <f>MIN(F2:F21)</f>
         <v>0.639406312608182</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <f t="shared" ref="H24:L24" si="5">AVERAGE(H2:H21)</f>
         <v>3.95</v>
       </c>
@@ -18659,7 +18648,7 @@
         <f t="shared" si="5"/>
         <v>3.275</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <f t="shared" si="5"/>
         <v>2.325</v>
       </c>
@@ -18669,7 +18658,7 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <f>QUARTILE(B2:B21,1)</f>
         <v>0</v>
       </c>
@@ -18681,7 +18670,7 @@
         <f>QUARTILE(D2:D21,1)</f>
         <v>0.331368821290375</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <f>QUARTILE(E2:E21,1)</f>
         <v>1.30154473527598</v>
       </c>
@@ -18691,7 +18680,7 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <f>QUARTILE(B2:B21,2)</f>
         <v>0.51609360030475</v>
       </c>
@@ -18703,7 +18692,7 @@
         <f>QUARTILE(D2:D21,2)</f>
         <v>0.619829364920782</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <f>QUARTILE(E2:E21,2)</f>
         <v>1.61000757495181</v>
       </c>
@@ -18713,7 +18702,7 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <f>QUARTILE(B2:B21,3)</f>
         <v>1.1808723928506</v>
       </c>
@@ -18725,7 +18714,7 @@
         <f>QUARTILE(D2:D21,3)</f>
         <v>1.47055594083687</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <f>QUARTILE(E2:E21,3)</f>
         <v>1.96595308473169</v>
       </c>
@@ -18735,7 +18724,7 @@
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <f>MAX(B2:B21)</f>
         <v>1.33913261875922</v>
       </c>
@@ -18747,7 +18736,7 @@
         <f>MAX(D2:D21)</f>
         <v>3.49631091449535</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <f>MAX(E2:E21)</f>
         <v>3.03421279412205</v>
       </c>
@@ -18757,24 +18746,24 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <f>MIN(B2:B21)</f>
         <v>0</v>
       </c>
@@ -18786,7 +18775,7 @@
         <f>MIN(D2:D21)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <f>MIN(E2:E21)</f>
         <v>0.704064729935364</v>
       </c>
@@ -18796,7 +18785,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <f>QUARTILE(B2:B21,1)-B31</f>
         <v>0</v>
       </c>
@@ -18808,7 +18797,7 @@
         <f>QUARTILE(D2:D21,1)-D31</f>
         <v>0.331368821290375</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <f>QUARTILE(E2:E21,1)-E31</f>
         <v>0.597480005340619</v>
       </c>
@@ -18818,7 +18807,7 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <f>QUARTILE(B2:B21,2)-B32-B31</f>
         <v>0.51609360030475</v>
       </c>
@@ -18830,7 +18819,7 @@
         <f>QUARTILE(D2:D21,2)-D32-D31</f>
         <v>0.288460543630407</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <f>QUARTILE(E2:E21,2)-E32-E31</f>
         <v>0.308462839675828</v>
       </c>
@@ -18840,7 +18829,7 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <f>QUARTILE(B2:B21,3)-B33-B32-B31</f>
         <v>0.664778792545855</v>
       </c>
@@ -18852,7 +18841,7 @@
         <f>QUARTILE(D2:D21,3)-D33-D32-D31</f>
         <v>0.85072657591609</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <f>QUARTILE(E2:E21,3)-E33-E32-E31</f>
         <v>0.355945509779877</v>
       </c>
@@ -18862,7 +18851,7 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <f>MAX(B2:B21)-B34-B33-B32-B31</f>
         <v>0.158260225908615</v>
       </c>
@@ -18874,7 +18863,7 @@
         <f>MAX(D2:D21)-D34-D33-D32-D31</f>
         <v>2.02575497365848</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <f>MAX(E2:E21)-E34-E33-E32-E31</f>
         <v>1.06825970939036</v>
       </c>
@@ -18908,13 +18897,18 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.2857142857143" customWidth="1"/>
     <col min="2" max="6" width="12.8571428571429"/>
+    <col min="8" max="8" width="8.28571428571429" customWidth="1"/>
+    <col min="9" max="9" width="7.85714285714286" customWidth="1"/>
+    <col min="10" max="10" width="7.14285714285714" customWidth="1"/>
+    <col min="11" max="11" width="6.57142857142857" customWidth="1"/>
+    <col min="12" max="12" width="7.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -18983,7 +18977,7 @@
         <f t="shared" ref="J2:J21" si="2">IF(D2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(D2,B2:F2,1))</f>
         <v>4</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <f t="shared" ref="K2:K21" si="3">IF(E2="NaN",5.5-COUNTIF(B2:F2,"NaN")*0.5,_xlfn.RANK.AVG(E2,B2:F2,1))</f>
         <v>2</v>
       </c>
@@ -19011,23 +19005,23 @@
       <c r="F3" s="7">
         <v>1.18448148962161</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -19063,7 +19057,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -19091,23 +19085,23 @@
       <c r="F5" s="7">
         <v>0.348571428571428</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
@@ -19143,7 +19137,7 @@
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -19162,7 +19156,7 @@
       <c r="C7" s="7">
         <v>1.9641456582633</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="8">
@@ -19171,23 +19165,23 @@
       <c r="F7" s="7">
         <v>1.22663558663558</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19223,7 +19217,7 @@
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
@@ -19239,7 +19233,7 @@
       <c r="B9" s="7">
         <v>0.21053450620014</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="7">
@@ -19251,23 +19245,23 @@
       <c r="F9" s="7">
         <v>0.3166614039274</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -19303,7 +19297,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -19319,35 +19313,35 @@
       <c r="B11" s="7">
         <v>0.361111111111111</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="8">
         <v>0.234285714285714</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>0.000185185185185185</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19383,7 +19377,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -19402,7 +19396,7 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="8">
@@ -19411,23 +19405,23 @@
       <c r="F13" s="7">
         <v>1.70586979698077</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -19463,7 +19457,7 @@
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -19482,7 +19476,7 @@
       <c r="C15" s="7">
         <v>3.5</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="8">
@@ -19491,23 +19485,23 @@
       <c r="F15" s="7">
         <v>0.0660605476610192</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19543,7 +19537,7 @@
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -19571,23 +19565,23 @@
       <c r="F17" s="7">
         <v>1.03453625431009</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="18">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -19623,7 +19617,7 @@
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -19639,7 +19633,7 @@
       <c r="B19" s="7">
         <v>0.365102738566737</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="7">
@@ -19651,23 +19645,23 @@
       <c r="F19" s="7">
         <v>0.56565889757318</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="18">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="6">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
@@ -19703,7 +19697,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -19719,7 +19713,7 @@
       <c r="B21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="7">
@@ -19731,61 +19725,61 @@
       <c r="F21" s="7">
         <v>1.61001709216171</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="6">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="6">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <f>MIN(B2:B21)</f>
         <v>0.164851125635439</v>
       </c>
@@ -19797,7 +19791,7 @@
         <f>MIN(D2:D21)</f>
         <v>0.0833471196406749</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <f>MIN(E2:E21)</f>
         <v>0.206258742222289</v>
       </c>
@@ -19805,7 +19799,7 @@
         <f>MIN(F2:F21)</f>
         <v>0.000185185185185185</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <f t="shared" ref="H24:L24" si="5">AVERAGE(H2:H21)</f>
         <v>3.15</v>
       </c>
@@ -19817,7 +19811,7 @@
         <f t="shared" si="5"/>
         <v>3.425</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <f t="shared" si="5"/>
         <v>3.025</v>
       </c>
@@ -19827,7 +19821,7 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <f>QUARTILE(B2:B21,1)</f>
         <v>0.21697824057159</v>
       </c>
@@ -19839,7 +19833,7 @@
         <f>QUARTILE(D2:D21,1)</f>
         <v>0.178450534017407</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <f>QUARTILE(E2:E21,1)</f>
         <v>0.499288781932761</v>
       </c>
@@ -19849,7 +19843,7 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <f>QUARTILE(B2:B21,2)</f>
         <v>0.267207957208614</v>
       </c>
@@ -19861,7 +19855,7 @@
         <f>QUARTILE(D2:D21,2)</f>
         <v>0.288937341262952</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <f>QUARTILE(E2:E21,2)</f>
         <v>0.936091229272045</v>
       </c>
@@ -19871,7 +19865,7 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <f>QUARTILE(B2:B21,3)</f>
         <v>0.354804096549379</v>
       </c>
@@ -19883,7 +19877,7 @@
         <f>QUARTILE(D2:D21,3)</f>
         <v>0.371640512265512</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <f>QUARTILE(E2:E21,3)</f>
         <v>1.6242187190804</v>
       </c>
@@ -19893,7 +19887,7 @@
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <f>MAX(B2:B21)</f>
         <v>0.407051282051282</v>
       </c>
@@ -19905,7 +19899,7 @@
         <f>MAX(D2:D21)</f>
         <v>0.470631958408564</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <f>MAX(E2:E21)</f>
         <v>1.99010898570934</v>
       </c>
@@ -19915,24 +19909,24 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <f>MIN(B2:B21)</f>
         <v>0.164851125635439</v>
       </c>
@@ -19944,7 +19938,7 @@
         <f>MIN(D2:D21)</f>
         <v>0.0833471196406749</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <f>MIN(E2:E21)</f>
         <v>0.206258742222289</v>
       </c>
@@ -19954,7 +19948,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <f>QUARTILE(B2:B21,1)-B31</f>
         <v>0.0521271149361512</v>
       </c>
@@ -19966,7 +19960,7 @@
         <f>QUARTILE(D2:D21,1)-D31</f>
         <v>0.0951034143767319</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <f>QUARTILE(E2:E21,1)-E31</f>
         <v>0.293030039710472</v>
       </c>
@@ -19976,7 +19970,7 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <f>QUARTILE(B2:B21,2)-B32-B31</f>
         <v>0.0502297166370242</v>
       </c>
@@ -19988,7 +19982,7 @@
         <f>QUARTILE(D2:D21,2)-D32-D31</f>
         <v>0.110486807245545</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <f>QUARTILE(E2:E21,2)-E32-E31</f>
         <v>0.436802447339284</v>
       </c>
@@ -19998,7 +19992,7 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <f>QUARTILE(B2:B21,3)-B33-B32-B31</f>
         <v>0.0875961393407648</v>
       </c>
@@ -20010,7 +20004,7 @@
         <f>QUARTILE(D2:D21,3)-D33-D32-D31</f>
         <v>0.0827031710025597</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <f>QUARTILE(E2:E21,3)-E33-E32-E31</f>
         <v>0.68812748980836</v>
       </c>
@@ -20020,7 +20014,7 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <f>MAX(B2:B21)-B34-B33-B32-B31</f>
         <v>0.0522471855019027</v>
       </c>
@@ -20032,7 +20026,7 @@
         <f>MAX(D2:D21)-D34-D33-D32-D31</f>
         <v>0.0989914461430522</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <f>MAX(E2:E21)-E34-E33-E32-E31</f>
         <v>0.365890266628935</v>
       </c>

--- a/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelaov4.xlsx
+++ b/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelaov4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13035" activeTab="4"/>
+    <workbookView windowWidth="28710" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -228,6 +228,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -235,29 +250,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +275,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,14 +298,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,9 +312,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,32 +326,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,9 +343,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,11 +357,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -411,7 +411,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,19 +495,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,91 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,43 +567,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,11 +651,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,8 +699,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,17 +720,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,59 +748,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,130 +771,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6075,11 +6075,11 @@
   <dimension ref="A1:AD101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="E77" sqref="D77:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15407,7 +15407,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="H2" sqref="H2:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -16570,8 +16570,8 @@
   <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18896,7 +18896,7 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
